--- a/data/PointsScored_Survivor_49.xlsx
+++ b/data/PointsScored_Survivor_49.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\IsaacSchultz\Documents\Survivor_Python\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DA7510E-C404-4B68-9E25-4F1E42993F88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{606DA5FE-E3DD-4083-9190-FADDF9C7CA12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{A549BF43-C147-4A07-BF22-B3F340E87A7B}"/>
   </bookViews>
@@ -83,9 +83,6 @@
     <t xml:space="preserve">Gains idol (has to be activated) </t>
   </si>
   <si>
-    <t>Exits due to health/injury</t>
-  </si>
-  <si>
     <t>Exits voluntarily</t>
   </si>
   <si>
@@ -258,17 +255,27 @@
   </si>
   <si>
     <t>Kristina</t>
+  </si>
+  <si>
+    <t>Exits due to health/injury before merge</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -353,12 +360,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -585,7 +593,7 @@
       <pane xSplit="2" ySplit="1" topLeftCell="C19" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C38" sqref="C38"/>
+      <selection pane="bottomRight" activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -642,98 +650,98 @@
       <c r="D1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="Z1" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="Z1" s="1" t="s">
-        <v>34</v>
-      </c>
       <c r="AA1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AB1" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="AC1" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AH1" t="s">
         <v>48</v>
       </c>
-      <c r="AB1" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="AC1" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="AD1" t="s">
-        <v>44</v>
-      </c>
-      <c r="AE1" t="s">
-        <v>45</v>
-      </c>
-      <c r="AF1" t="s">
-        <v>46</v>
-      </c>
-      <c r="AG1" t="s">
-        <v>47</v>
-      </c>
-      <c r="AH1" t="s">
-        <v>49</v>
-      </c>
       <c r="AI1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AJ1" s="1" t="s">
         <v>2</v>
@@ -763,12 +771,12 @@
         <v>10</v>
       </c>
       <c r="AS1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="2" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B2" s="7">
         <v>1</v>
@@ -776,7 +784,7 @@
     </row>
     <row r="3" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B3" s="7">
         <v>1</v>
@@ -784,7 +792,7 @@
     </row>
     <row r="4" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B4" s="7">
         <v>1</v>
@@ -792,7 +800,7 @@
     </row>
     <row r="5" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B5" s="7">
         <v>1</v>
@@ -800,7 +808,7 @@
     </row>
     <row r="6" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B6" s="7">
         <v>1</v>
@@ -808,7 +816,7 @@
     </row>
     <row r="7" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B7" s="7">
         <v>1</v>
@@ -816,7 +824,7 @@
     </row>
     <row r="8" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B8" s="7">
         <v>1</v>
@@ -824,7 +832,7 @@
     </row>
     <row r="9" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B9" s="7">
         <v>1</v>
@@ -832,7 +840,7 @@
     </row>
     <row r="10" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B10" s="7">
         <v>1</v>
@@ -840,7 +848,7 @@
     </row>
     <row r="11" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B11" s="7">
         <v>1</v>
@@ -848,7 +856,7 @@
     </row>
     <row r="12" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B12" s="7">
         <v>1</v>
@@ -856,7 +864,7 @@
     </row>
     <row r="13" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B13" s="7">
         <v>1</v>
@@ -864,7 +872,7 @@
     </row>
     <row r="14" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B14" s="7">
         <v>1</v>
@@ -872,7 +880,7 @@
     </row>
     <row r="15" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B15" s="7">
         <v>1</v>
@@ -880,7 +888,7 @@
     </row>
     <row r="16" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B16" s="7">
         <v>1</v>
@@ -888,7 +896,7 @@
     </row>
     <row r="17" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B17" s="7">
         <v>1</v>
@@ -896,7 +904,7 @@
     </row>
     <row r="18" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B18" s="7">
         <v>1</v>
@@ -904,7 +912,7 @@
     </row>
     <row r="19" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B19" s="7">
         <v>1</v>
@@ -912,7 +920,7 @@
     </row>
     <row r="20" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B20" s="7">
         <v>2</v>
@@ -920,7 +928,7 @@
     </row>
     <row r="21" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B21" s="7">
         <v>2</v>
@@ -928,7 +936,7 @@
     </row>
     <row r="22" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B22" s="7">
         <v>2</v>
@@ -936,7 +944,7 @@
     </row>
     <row r="23" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B23" s="7">
         <v>2</v>
@@ -944,7 +952,7 @@
     </row>
     <row r="24" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B24" s="7">
         <v>2</v>
@@ -952,7 +960,7 @@
     </row>
     <row r="25" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B25" s="7">
         <v>2</v>
@@ -960,7 +968,7 @@
     </row>
     <row r="26" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B26" s="7">
         <v>2</v>
@@ -968,7 +976,7 @@
     </row>
     <row r="27" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B27" s="7">
         <v>2</v>
@@ -976,7 +984,7 @@
     </row>
     <row r="28" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B28" s="7">
         <v>2</v>
@@ -984,7 +992,7 @@
     </row>
     <row r="29" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B29" s="7">
         <v>2</v>
@@ -992,7 +1000,7 @@
     </row>
     <row r="30" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B30" s="7">
         <v>2</v>
@@ -1000,7 +1008,7 @@
     </row>
     <row r="31" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B31" s="7">
         <v>2</v>
@@ -1008,7 +1016,7 @@
     </row>
     <row r="32" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B32" s="7">
         <v>2</v>
@@ -1016,7 +1024,7 @@
     </row>
     <row r="33" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B33" s="7">
         <v>2</v>
@@ -1024,7 +1032,7 @@
     </row>
     <row r="34" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B34" s="7">
         <v>2</v>
@@ -1032,7 +1040,7 @@
     </row>
     <row r="35" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B35" s="7">
         <v>2</v>
@@ -1040,7 +1048,7 @@
     </row>
     <row r="36" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B36" s="7">
         <v>2</v>
@@ -1048,7 +1056,7 @@
     </row>
     <row r="37" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B37" s="1">
         <v>3</v>
@@ -1059,7 +1067,7 @@
     </row>
     <row r="38" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B38" s="1">
         <v>3</v>
@@ -1072,7 +1080,7 @@
     </row>
     <row r="39" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B39" s="1">
         <v>3</v>
@@ -1080,7 +1088,7 @@
     </row>
     <row r="40" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B40" s="1">
         <v>3</v>
@@ -1088,7 +1096,7 @@
     </row>
     <row r="41" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B41" s="1">
         <v>3</v>
@@ -1096,7 +1104,7 @@
     </row>
     <row r="42" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B42" s="1">
         <v>3</v>
@@ -1105,7 +1113,7 @@
     </row>
     <row r="43" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B43" s="1">
         <v>3</v>
@@ -1113,7 +1121,7 @@
     </row>
     <row r="44" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B44" s="1">
         <v>3</v>
@@ -1122,7 +1130,7 @@
     </row>
     <row r="45" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B45" s="1">
         <v>3</v>
@@ -1133,7 +1141,7 @@
     </row>
     <row r="46" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B46" s="1">
         <v>3</v>
@@ -1141,7 +1149,7 @@
     </row>
     <row r="47" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B47" s="1">
         <v>3</v>
@@ -1150,7 +1158,7 @@
     </row>
     <row r="48" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B48" s="1">
         <v>3</v>
@@ -1158,7 +1166,7 @@
     </row>
     <row r="49" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B49" s="1">
         <v>3</v>
@@ -1166,7 +1174,7 @@
     </row>
     <row r="50" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B50" s="1">
         <v>3</v>
@@ -1176,7 +1184,7 @@
     </row>
     <row r="51" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B51" s="1">
         <v>3</v>
@@ -1186,7 +1194,7 @@
     </row>
     <row r="52" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B52" s="1">
         <v>3</v>
@@ -1206,7 +1214,7 @@
   <dimension ref="A1:E990"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+      <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1219,16 +1227,16 @@
         <v>1</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>38</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -2344,25 +2352,25 @@
         <v>1</v>
       </c>
       <c r="B1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E1" t="s">
         <v>35</v>
       </c>
-      <c r="C1" t="s">
-        <v>40</v>
-      </c>
-      <c r="D1" t="s">
-        <v>41</v>
-      </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>36</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>37</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>38</v>
-      </c>
-      <c r="H1" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
@@ -2370,10 +2378,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="D2" s="7" t="s">
         <v>69</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>70</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -2393,10 +2401,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="D3" s="7" t="s">
         <v>69</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>70</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -2416,10 +2424,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="D4" s="7" t="s">
         <v>69</v>
-      </c>
-      <c r="D4" s="7" t="s">
-        <v>70</v>
       </c>
       <c r="E4">
         <v>0</v>

--- a/data/PointsScored_Survivor_49.xlsx
+++ b/data/PointsScored_Survivor_49.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\IsaacSchultz\Documents\Survivor_Python\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{606DA5FE-E3DD-4083-9190-FADDF9C7CA12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08B3A798-812F-47C4-9ACB-316C1C461650}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{A549BF43-C147-4A07-BF22-B3F340E87A7B}"/>
   </bookViews>
@@ -590,10 +590,10 @@
   <dimension ref="A1:AS52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C19" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C13" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E29" sqref="E29"/>
+      <selection pane="bottomRight" activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>

--- a/data/PointsScored_Survivor_49.xlsx
+++ b/data/PointsScored_Survivor_49.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\IsaacSchultz\Documents\Survivor_Python\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08B3A798-812F-47C4-9ACB-316C1C461650}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CFBD4F2-FB4B-4707-AEE1-B450868B0189}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{A549BF43-C147-4A07-BF22-B3F340E87A7B}"/>
   </bookViews>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="72">
   <si>
     <t>Player</t>
   </si>
@@ -587,13 +587,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AS52"/>
+  <dimension ref="A1:AS67"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C13" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C39" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C23" sqref="C23"/>
+      <selection pane="bottomRight" activeCell="D47" sqref="D47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1201,6 +1201,150 @@
       </c>
       <c r="Y52" s="1"/>
       <c r="Z52" s="1"/>
+    </row>
+    <row r="53" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>51</v>
+      </c>
+      <c r="B53" s="1">
+        <v>4</v>
+      </c>
+      <c r="Z53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>53</v>
+      </c>
+      <c r="B54" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="55" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>54</v>
+      </c>
+      <c r="B55" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="56" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>55</v>
+      </c>
+      <c r="B56" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="57" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="B57" s="1">
+        <v>4</v>
+      </c>
+      <c r="Z57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>57</v>
+      </c>
+      <c r="B58" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>58</v>
+      </c>
+      <c r="B59" s="1">
+        <v>4</v>
+      </c>
+      <c r="Z59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>59</v>
+      </c>
+      <c r="B60" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="61" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>61</v>
+      </c>
+      <c r="B61" s="1">
+        <v>4</v>
+      </c>
+      <c r="D61">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>62</v>
+      </c>
+      <c r="B62" s="1">
+        <v>4</v>
+      </c>
+      <c r="Z62">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>63</v>
+      </c>
+      <c r="B63" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="64" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>64</v>
+      </c>
+      <c r="B64" s="1">
+        <v>4</v>
+      </c>
+      <c r="Z64">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>65</v>
+      </c>
+      <c r="B65" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="66" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>66</v>
+      </c>
+      <c r="B66" s="1">
+        <v>4</v>
+      </c>
+      <c r="Z66">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>67</v>
+      </c>
+      <c r="B67" s="1">
+        <v>4</v>
+      </c>
+      <c r="Z67">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:AA17" xr:uid="{00000000-0001-0000-0000-000000000000}"/>

--- a/data/PointsScored_Survivor_49.xlsx
+++ b/data/PointsScored_Survivor_49.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\IsaacSchultz\Documents\Survivor_Python\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CFBD4F2-FB4B-4707-AEE1-B450868B0189}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65F923F4-173A-45A7-8247-25B6BAF66E1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{A549BF43-C147-4A07-BF22-B3F340E87A7B}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{A549BF43-C147-4A07-BF22-B3F340E87A7B}"/>
   </bookViews>
   <sheets>
     <sheet name="PointsScored_Survivor" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="83">
   <si>
     <t>Player</t>
   </si>
@@ -258,17 +258,57 @@
   </si>
   <si>
     <t>Exits due to health/injury before merge</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>Who will say the episode title "Go Kick Rocks, Bro"?</t>
+  </si>
+  <si>
+    <t>Who will find an advantage/idol etc.?</t>
+  </si>
+  <si>
+    <t>Who will be on the winning immunity challenge team? (pick one person, tribe swap time!)</t>
+  </si>
+  <si>
+    <t>Who will be on the winning reward challenge team?</t>
+  </si>
+  <si>
+    <t>Will anyone play a shot in the dark?</t>
+  </si>
+  <si>
+    <t>Will anyone play an idol/advantage at tribal?</t>
+  </si>
+  <si>
+    <t>Will anyone cry?</t>
+  </si>
+  <si>
+    <t>Who will be eliminated?</t>
+  </si>
+  <si>
+    <t>Shannon, Alex, Steven, Sage, MC, Kristina, Sophie S</t>
+  </si>
+  <si>
+    <t>NA</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -327,12 +367,24 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -360,18 +412,27 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -589,11 +650,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AS67"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C39" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D47" sqref="D47"/>
+      <selection pane="bottomRight" activeCell="C68" sqref="C68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1357,8 +1418,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:E990"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J4" sqref="J4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1435,10 +1496,21 @@
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
+      <c r="A5" s="9">
+        <v>4</v>
+      </c>
+      <c r="B5" s="9">
+        <v>5</v>
+      </c>
+      <c r="C5" s="9">
+        <v>1</v>
+      </c>
+      <c r="D5" s="9">
+        <v>4</v>
+      </c>
+      <c r="E5" s="9">
+        <v>2</v>
+      </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
@@ -2474,10 +2546,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3ABC1FEC-B626-46F0-AE97-C498D904E4E1}">
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2524,7 +2596,7 @@
       <c r="B2" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="D2" s="13" t="s">
         <v>69</v>
       </c>
       <c r="E2">
@@ -2547,7 +2619,7 @@
       <c r="B3" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="D3" s="13" t="s">
         <v>69</v>
       </c>
       <c r="E3">
@@ -2570,7 +2642,7 @@
       <c r="B4" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="D4" s="7" t="s">
+      <c r="D4" s="13" t="s">
         <v>69</v>
       </c>
       <c r="E4">
@@ -2584,6 +2656,214 @@
       </c>
       <c r="H4">
         <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="D5" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="E5" t="s">
+        <v>57</v>
+      </c>
+      <c r="F5" t="s">
+        <v>51</v>
+      </c>
+      <c r="G5" t="s">
+        <v>61</v>
+      </c>
+      <c r="H5" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="D6" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="E6" t="s">
+        <v>70</v>
+      </c>
+      <c r="F6" t="s">
+        <v>58</v>
+      </c>
+      <c r="G6" t="s">
+        <v>63</v>
+      </c>
+      <c r="H6" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>4</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="D7" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="E7" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="F7" t="s">
+        <v>61</v>
+      </c>
+      <c r="G7" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="H7" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>4</v>
+      </c>
+      <c r="B8" t="s">
+        <v>76</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="D8" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="E8" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="F8" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="G8" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="H8" s="15" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>4</v>
+      </c>
+      <c r="B9" t="s">
+        <v>77</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="D9" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="E9" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="F9" t="s">
+        <v>69</v>
+      </c>
+      <c r="G9" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="H9" s="12" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>4</v>
+      </c>
+      <c r="B10" t="s">
+        <v>78</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="D10" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="E10" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="F10" t="s">
+        <v>69</v>
+      </c>
+      <c r="G10" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="H10" s="12" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>4</v>
+      </c>
+      <c r="B11" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="C11" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="D11" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="E11" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="F11" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="G11" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="H11" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>4</v>
+      </c>
+      <c r="B12" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="C12" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="D12" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="E12" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="F12" t="s">
+        <v>55</v>
+      </c>
+      <c r="G12" t="s">
+        <v>62</v>
+      </c>
+      <c r="H12" t="s">
+        <v>55</v>
       </c>
     </row>
   </sheetData>

--- a/data/PointsScored_Survivor_49.xlsx
+++ b/data/PointsScored_Survivor_49.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\IsaacSchultz\Documents\Survivor_Python\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65F923F4-173A-45A7-8247-25B6BAF66E1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECF46125-F092-48C3-A7F0-E30213FCD1EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{A549BF43-C147-4A07-BF22-B3F340E87A7B}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{A549BF43-C147-4A07-BF22-B3F340E87A7B}"/>
   </bookViews>
   <sheets>
     <sheet name="PointsScored_Survivor" sheetId="1" r:id="rId1"/>
@@ -412,7 +412,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -424,7 +424,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -650,11 +649,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AS67"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C39" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C54" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C68" sqref="C68"/>
+      <selection pane="bottomRight" activeCell="C76" sqref="C76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1418,8 +1417,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:E990"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K8" sqref="K8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2596,7 +2595,7 @@
       <c r="B2" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="D2" s="13" t="s">
+      <c r="D2" s="12" t="s">
         <v>69</v>
       </c>
       <c r="E2">
@@ -2619,7 +2618,7 @@
       <c r="B3" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="D3" s="13" t="s">
+      <c r="D3" s="12" t="s">
         <v>69</v>
       </c>
       <c r="E3">
@@ -2642,7 +2641,7 @@
       <c r="B4" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="D4" s="13" t="s">
+      <c r="D4" s="12" t="s">
         <v>69</v>
       </c>
       <c r="E4">
@@ -2662,13 +2661,13 @@
       <c r="A5">
         <v>4</v>
       </c>
-      <c r="B5" s="10" t="s">
+      <c r="B5" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="C5" s="10" t="s">
+      <c r="C5" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="D5" s="14" t="s">
+      <c r="D5" s="13" t="s">
         <v>72</v>
       </c>
       <c r="E5" t="s">
@@ -2688,13 +2687,13 @@
       <c r="A6">
         <v>4</v>
       </c>
-      <c r="B6" s="10" t="s">
+      <c r="B6" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="C6" s="10" t="s">
+      <c r="C6" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="D6" s="14" t="s">
+      <c r="D6" s="13" t="s">
         <v>72</v>
       </c>
       <c r="E6" t="s">
@@ -2714,22 +2713,22 @@
       <c r="A7">
         <v>4</v>
       </c>
-      <c r="B7" s="11" t="s">
+      <c r="B7" s="10" t="s">
         <v>75</v>
       </c>
-      <c r="C7" s="11" t="s">
+      <c r="C7" s="10" t="s">
         <v>81</v>
       </c>
-      <c r="D7" s="14" t="s">
+      <c r="D7" s="13" t="s">
         <v>72</v>
       </c>
-      <c r="E7" s="12" t="s">
+      <c r="E7" s="11" t="s">
         <v>58</v>
       </c>
       <c r="F7" t="s">
         <v>61</v>
       </c>
-      <c r="G7" s="12" t="s">
+      <c r="G7" s="11" t="s">
         <v>57</v>
       </c>
       <c r="H7" t="s">
@@ -2743,22 +2742,22 @@
       <c r="B8" t="s">
         <v>76</v>
       </c>
-      <c r="C8" s="10" t="s">
+      <c r="C8" s="9" t="s">
         <v>82</v>
       </c>
-      <c r="D8" s="14" t="s">
+      <c r="D8" s="13" t="s">
         <v>69</v>
       </c>
-      <c r="E8" s="15" t="s">
+      <c r="E8" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="F8" s="15" t="s">
+      <c r="F8" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="G8" s="15" t="s">
+      <c r="G8" s="14" t="s">
         <v>54</v>
       </c>
-      <c r="H8" s="15" t="s">
+      <c r="H8" s="14" t="s">
         <v>58</v>
       </c>
     </row>
@@ -2769,22 +2768,22 @@
       <c r="B9" t="s">
         <v>77</v>
       </c>
-      <c r="C9" s="10" t="s">
+      <c r="C9" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="D9" s="14" t="s">
+      <c r="D9" s="13" t="s">
         <v>72</v>
       </c>
-      <c r="E9" s="12" t="s">
+      <c r="E9" s="11" t="s">
         <v>72</v>
       </c>
       <c r="F9" t="s">
         <v>69</v>
       </c>
-      <c r="G9" s="12" t="s">
+      <c r="G9" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="H9" s="12" t="s">
+      <c r="H9" s="11" t="s">
         <v>72</v>
       </c>
     </row>
@@ -2795,22 +2794,22 @@
       <c r="B10" t="s">
         <v>78</v>
       </c>
-      <c r="C10" s="10" t="s">
+      <c r="C10" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="D10" s="14" t="s">
+      <c r="D10" s="13" t="s">
         <v>72</v>
       </c>
-      <c r="E10" s="12" t="s">
+      <c r="E10" s="11" t="s">
         <v>72</v>
       </c>
       <c r="F10" t="s">
         <v>69</v>
       </c>
-      <c r="G10" s="12" t="s">
+      <c r="G10" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="H10" s="12" t="s">
+      <c r="H10" s="11" t="s">
         <v>72</v>
       </c>
     </row>
@@ -2818,22 +2817,22 @@
       <c r="A11">
         <v>4</v>
       </c>
-      <c r="B11" s="10" t="s">
+      <c r="B11" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="C11" s="10" t="s">
+      <c r="C11" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="D11" s="14" t="s">
+      <c r="D11" s="13" t="s">
         <v>72</v>
       </c>
-      <c r="E11" s="12" t="s">
+      <c r="E11" s="11" t="s">
         <v>69</v>
       </c>
-      <c r="F11" s="12" t="s">
+      <c r="F11" s="11" t="s">
         <v>69</v>
       </c>
-      <c r="G11" s="12" t="s">
+      <c r="G11" s="11" t="s">
         <v>69</v>
       </c>
       <c r="H11" t="s">
@@ -2844,16 +2843,16 @@
       <c r="A12">
         <v>4</v>
       </c>
-      <c r="B12" s="10" t="s">
+      <c r="B12" s="9" t="s">
         <v>80</v>
       </c>
-      <c r="C12" s="10" t="s">
+      <c r="C12" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="D12" s="14" t="s">
+      <c r="D12" s="13" t="s">
         <v>72</v>
       </c>
-      <c r="E12" s="12" t="s">
+      <c r="E12" s="11" t="s">
         <v>57</v>
       </c>
       <c r="F12" t="s">

--- a/data/PointsScored_Survivor_49.xlsx
+++ b/data/PointsScored_Survivor_49.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\IsaacSchultz\Documents\Survivor_Python\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4A00C8A-FB77-473A-992C-92E572265FB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B79607C-94DE-4B11-9668-5FD33D3A2F22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{A549BF43-C147-4A07-BF22-B3F340E87A7B}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{A549BF43-C147-4A07-BF22-B3F340E87A7B}"/>
   </bookViews>
   <sheets>
     <sheet name="PointsScored_Survivor" sheetId="1" r:id="rId1"/>
@@ -996,14 +996,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:AS105"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="X82" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="X2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="Y86" sqref="Y86:Z92"/>
+      <selection pane="bottomRight" activeCell="X18" sqref="X18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -1184,7 +1183,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="2" spans="1:45" ht="14.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:45" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>51</v>
       </c>
@@ -1192,7 +1191,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:45" ht="14.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:45" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>52</v>
       </c>
@@ -1200,7 +1199,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:45" ht="14.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:45" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>53</v>
       </c>
@@ -1208,7 +1207,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:45" ht="14.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:45" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>54</v>
       </c>
@@ -1216,7 +1215,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:45" ht="14.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:45" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>55</v>
       </c>
@@ -1224,7 +1223,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:45" ht="14.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:45" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>56</v>
       </c>
@@ -1232,7 +1231,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:45" ht="14.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:45" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A8" s="7" t="s">
         <v>70</v>
       </c>
@@ -1240,7 +1239,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:45" ht="14.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:45" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>57</v>
       </c>
@@ -1248,7 +1247,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:45" ht="14.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:45" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>58</v>
       </c>
@@ -1256,7 +1255,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:45" ht="14.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:45" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>59</v>
       </c>
@@ -1264,7 +1263,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:45" ht="14.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:45" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>60</v>
       </c>
@@ -1272,7 +1271,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:45" ht="14.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:45" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>61</v>
       </c>
@@ -1280,7 +1279,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:45" ht="14.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:45" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>62</v>
       </c>
@@ -1288,7 +1287,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:45" ht="14.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:45" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>63</v>
       </c>
@@ -1296,7 +1295,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:45" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>64</v>
       </c>
@@ -1304,7 +1303,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>65</v>
       </c>
@@ -1312,7 +1311,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>66</v>
       </c>
@@ -1320,7 +1319,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:2" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>67</v>
       </c>
@@ -1328,7 +1327,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:2" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>51</v>
       </c>
@@ -1336,7 +1335,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:2" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>52</v>
       </c>
@@ -1344,7 +1343,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:2" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>53</v>
       </c>
@@ -1352,7 +1351,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:2" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>54</v>
       </c>
@@ -1360,7 +1359,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:2" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>55</v>
       </c>
@@ -1368,7 +1367,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:2" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>56</v>
       </c>
@@ -1376,7 +1375,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:2" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="7" t="s">
         <v>70</v>
       </c>
@@ -1384,7 +1383,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:2" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>57</v>
       </c>
@@ -1392,7 +1391,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="1:2" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>58</v>
       </c>
@@ -1400,7 +1399,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="1:2" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>59</v>
       </c>
@@ -1408,7 +1407,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="30" spans="1:2" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>61</v>
       </c>
@@ -1416,7 +1415,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="1:2" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>62</v>
       </c>
@@ -1424,7 +1423,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="1:2" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>63</v>
       </c>
@@ -1432,7 +1431,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="33" spans="1:32" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>64</v>
       </c>
@@ -1440,7 +1439,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="34" spans="1:32" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>65</v>
       </c>
@@ -1448,7 +1447,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="35" spans="1:32" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>66</v>
       </c>
@@ -1456,7 +1455,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="36" spans="1:32" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>67</v>
       </c>
@@ -1464,7 +1463,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="37" spans="1:32" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>51</v>
       </c>
@@ -1475,7 +1474,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:32" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>53</v>
       </c>
@@ -1488,7 +1487,7 @@
       </c>
       <c r="AA38" s="1"/>
     </row>
-    <row r="39" spans="1:32" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>54</v>
       </c>
@@ -1496,7 +1495,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="40" spans="1:32" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>55</v>
       </c>
@@ -1504,7 +1503,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="41" spans="1:32" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>56</v>
       </c>
@@ -1512,7 +1511,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="42" spans="1:32" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A42" s="7" t="s">
         <v>70</v>
       </c>
@@ -1521,7 +1520,7 @@
       </c>
       <c r="Z42" s="1"/>
     </row>
-    <row r="43" spans="1:32" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>57</v>
       </c>
@@ -1529,7 +1528,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="44" spans="1:32" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>58</v>
       </c>
@@ -1538,7 +1537,7 @@
       </c>
       <c r="Z44" s="1"/>
     </row>
-    <row r="45" spans="1:32" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>59</v>
       </c>
@@ -1549,7 +1548,7 @@
       <c r="Z45" s="1"/>
       <c r="AA45" s="1"/>
     </row>
-    <row r="46" spans="1:32" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>61</v>
       </c>
@@ -1557,7 +1556,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="47" spans="1:32" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>62</v>
       </c>
@@ -1566,7 +1565,7 @@
       </c>
       <c r="Y47" s="1"/>
     </row>
-    <row r="48" spans="1:32" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>63</v>
       </c>
@@ -1574,7 +1573,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="49" spans="1:26" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>64</v>
       </c>
@@ -1582,7 +1581,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="50" spans="1:26" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>65</v>
       </c>
@@ -1592,7 +1591,7 @@
       <c r="Y50" s="1"/>
       <c r="Z50" s="1"/>
     </row>
-    <row r="51" spans="1:26" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>66</v>
       </c>
@@ -1602,7 +1601,7 @@
       <c r="Y51" s="1"/>
       <c r="Z51" s="1"/>
     </row>
-    <row r="52" spans="1:26" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>67</v>
       </c>
@@ -1612,7 +1611,7 @@
       <c r="Y52" s="1"/>
       <c r="Z52" s="1"/>
     </row>
-    <row r="53" spans="1:26" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>51</v>
       </c>
@@ -1623,7 +1622,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:26" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>53</v>
       </c>
@@ -1631,7 +1630,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="55" spans="1:26" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>54</v>
       </c>
@@ -1639,7 +1638,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="56" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>55</v>
       </c>
@@ -1647,7 +1646,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="57" spans="1:26" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A57" s="7" t="s">
         <v>70</v>
       </c>
@@ -1658,7 +1657,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:26" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
         <v>57</v>
       </c>
@@ -1666,7 +1665,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="59" spans="1:26" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
         <v>58</v>
       </c>
@@ -1677,7 +1676,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:26" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
         <v>59</v>
       </c>
@@ -1685,7 +1684,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="61" spans="1:26" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
         <v>61</v>
       </c>
@@ -1696,7 +1695,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:26" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
         <v>62</v>
       </c>
@@ -1707,7 +1706,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:26" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
         <v>63</v>
       </c>
@@ -1715,7 +1714,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="64" spans="1:26" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
         <v>64</v>
       </c>
@@ -1726,7 +1725,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:27" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
         <v>65</v>
       </c>
@@ -1734,7 +1733,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="66" spans="1:27" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
         <v>66</v>
       </c>
@@ -1745,7 +1744,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:27" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
         <v>67</v>
       </c>
@@ -1756,7 +1755,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:27" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
         <v>51</v>
       </c>
@@ -1767,7 +1766,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:27" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
         <v>53</v>
       </c>
@@ -1775,7 +1774,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="70" spans="1:27" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
         <v>54</v>
       </c>
@@ -1783,7 +1782,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="71" spans="1:27" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
         <v>55</v>
       </c>
@@ -1791,7 +1790,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="72" spans="1:27" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A72" s="7" t="s">
         <v>70</v>
       </c>
@@ -1803,7 +1802,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:27" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
         <v>58</v>
       </c>
@@ -1817,7 +1816,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:27" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
         <v>59</v>
       </c>
@@ -1828,7 +1827,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:27" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
         <v>61</v>
       </c>
@@ -1836,7 +1835,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="76" spans="1:27" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
         <v>62</v>
       </c>
@@ -1847,7 +1846,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:27" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
         <v>63</v>
       </c>
@@ -1855,7 +1854,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="78" spans="1:27" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
         <v>64</v>
       </c>
@@ -1866,7 +1865,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:27" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
         <v>65</v>
       </c>
@@ -1874,7 +1873,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="80" spans="1:27" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
         <v>66</v>
       </c>
@@ -1885,7 +1884,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="1:26" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
         <v>67</v>
       </c>
@@ -2027,7 +2026,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="95" spans="1:26" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
         <v>51</v>
       </c>
@@ -2038,7 +2037,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="96" spans="1:26" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A96" t="s">
         <v>55</v>
       </c>
@@ -2049,7 +2048,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="1:32" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A97" s="7" t="s">
         <v>70</v>
       </c>
@@ -2061,7 +2060,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="98" spans="1:32" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
         <v>58</v>
       </c>
@@ -2078,7 +2077,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="99" spans="1:32" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
         <v>59</v>
       </c>
@@ -2092,7 +2091,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="100" spans="1:32" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
         <v>61</v>
       </c>
@@ -2106,7 +2105,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="101" spans="1:32" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A101" t="s">
         <v>62</v>
       </c>
@@ -2120,7 +2119,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="102" spans="1:32" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A102" t="s">
         <v>63</v>
       </c>
@@ -2131,7 +2130,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="103" spans="1:32" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A103" t="s">
         <v>65</v>
       </c>
@@ -2145,7 +2144,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="104" spans="1:32" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A104" t="s">
         <v>66</v>
       </c>
@@ -2162,7 +2161,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="105" spans="1:32" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A105" t="s">
         <v>67</v>
       </c>
@@ -2177,13 +2176,6 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AA105" xr:uid="{00000000-0001-0000-0000-000000000000}">
-    <filterColumn colId="1">
-      <filters>
-        <filter val="6"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
 </worksheet>
@@ -2194,7 +2186,7 @@
   <dimension ref="A1:E990"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K8" sqref="K8"/>
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -3354,8 +3346,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3ABC1FEC-B626-46F0-AE97-C498D904E4E1}">
   <dimension ref="A1:H39"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="H40" sqref="E40:H40"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/data/PointsScored_Survivor_49.xlsx
+++ b/data/PointsScored_Survivor_49.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\IsaacSchultz\Documents\Survivor_Python\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B79607C-94DE-4B11-9668-5FD33D3A2F22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D88F3EB7-19D5-48BF-8975-7E9C61ED267F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{A549BF43-C147-4A07-BF22-B3F340E87A7B}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{A549BF43-C147-4A07-BF22-B3F340E87A7B}"/>
   </bookViews>
   <sheets>
     <sheet name="PointsScored_Survivor" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="407" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="485" uniqueCount="105">
   <si>
     <t>Player</t>
   </si>
@@ -339,17 +339,39 @@
   </si>
   <si>
     <t>Who will say episode title "Blood will be drawn" *aka I'm a wolf baby</t>
+  </si>
+  <si>
+    <t>Who will say the episode title: "Hot Grim Reaper"?</t>
+  </si>
+  <si>
+    <t>Who will win individual immunity?</t>
+  </si>
+  <si>
+    <t>Will there be a reward challenge?</t>
+  </si>
+  <si>
+    <t>Will Shannon or Sage be eliminated?</t>
+  </si>
+  <si>
+    <t>Will anyone cry like a big old baby?</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -685,102 +707,111 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="68">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -996,13 +1027,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AS105"/>
+  <dimension ref="A1:AS115"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="X2" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="AG101" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="X18" sqref="X18"/>
+      <selection pane="bottomRight" activeCell="AG112" sqref="AG112"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -1059,7 +1090,7 @@
       <c r="D1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="E1" s="7" t="s">
         <v>71</v>
       </c>
       <c r="F1" s="1" t="s">
@@ -1187,7 +1218,7 @@
       <c r="A2" t="s">
         <v>51</v>
       </c>
-      <c r="B2" s="7">
+      <c r="B2" s="6">
         <v>1</v>
       </c>
     </row>
@@ -1195,7 +1226,7 @@
       <c r="A3" t="s">
         <v>52</v>
       </c>
-      <c r="B3" s="7">
+      <c r="B3" s="6">
         <v>1</v>
       </c>
     </row>
@@ -1203,7 +1234,7 @@
       <c r="A4" t="s">
         <v>53</v>
       </c>
-      <c r="B4" s="7">
+      <c r="B4" s="6">
         <v>1</v>
       </c>
     </row>
@@ -1211,7 +1242,7 @@
       <c r="A5" t="s">
         <v>54</v>
       </c>
-      <c r="B5" s="7">
+      <c r="B5" s="6">
         <v>1</v>
       </c>
     </row>
@@ -1219,7 +1250,7 @@
       <c r="A6" t="s">
         <v>55</v>
       </c>
-      <c r="B6" s="7">
+      <c r="B6" s="6">
         <v>1</v>
       </c>
     </row>
@@ -1227,15 +1258,15 @@
       <c r="A7" t="s">
         <v>56</v>
       </c>
-      <c r="B7" s="7">
+      <c r="B7" s="6">
         <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:45" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A8" s="7" t="s">
+      <c r="A8" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="B8" s="7">
+      <c r="B8" s="6">
         <v>1</v>
       </c>
     </row>
@@ -1243,7 +1274,7 @@
       <c r="A9" t="s">
         <v>57</v>
       </c>
-      <c r="B9" s="7">
+      <c r="B9" s="6">
         <v>1</v>
       </c>
     </row>
@@ -1251,7 +1282,7 @@
       <c r="A10" t="s">
         <v>58</v>
       </c>
-      <c r="B10" s="7">
+      <c r="B10" s="6">
         <v>1</v>
       </c>
     </row>
@@ -1259,7 +1290,7 @@
       <c r="A11" t="s">
         <v>59</v>
       </c>
-      <c r="B11" s="7">
+      <c r="B11" s="6">
         <v>1</v>
       </c>
     </row>
@@ -1267,7 +1298,7 @@
       <c r="A12" t="s">
         <v>60</v>
       </c>
-      <c r="B12" s="7">
+      <c r="B12" s="6">
         <v>1</v>
       </c>
     </row>
@@ -1275,7 +1306,7 @@
       <c r="A13" t="s">
         <v>61</v>
       </c>
-      <c r="B13" s="7">
+      <c r="B13" s="6">
         <v>1</v>
       </c>
     </row>
@@ -1283,7 +1314,7 @@
       <c r="A14" t="s">
         <v>62</v>
       </c>
-      <c r="B14" s="7">
+      <c r="B14" s="6">
         <v>1</v>
       </c>
     </row>
@@ -1291,7 +1322,7 @@
       <c r="A15" t="s">
         <v>63</v>
       </c>
-      <c r="B15" s="7">
+      <c r="B15" s="6">
         <v>1</v>
       </c>
     </row>
@@ -1299,7 +1330,7 @@
       <c r="A16" t="s">
         <v>64</v>
       </c>
-      <c r="B16" s="7">
+      <c r="B16" s="6">
         <v>1</v>
       </c>
     </row>
@@ -1307,7 +1338,7 @@
       <c r="A17" t="s">
         <v>65</v>
       </c>
-      <c r="B17" s="7">
+      <c r="B17" s="6">
         <v>1</v>
       </c>
     </row>
@@ -1315,7 +1346,7 @@
       <c r="A18" t="s">
         <v>66</v>
       </c>
-      <c r="B18" s="7">
+      <c r="B18" s="6">
         <v>1</v>
       </c>
     </row>
@@ -1323,7 +1354,7 @@
       <c r="A19" t="s">
         <v>67</v>
       </c>
-      <c r="B19" s="7">
+      <c r="B19" s="6">
         <v>1</v>
       </c>
     </row>
@@ -1331,7 +1362,7 @@
       <c r="A20" t="s">
         <v>51</v>
       </c>
-      <c r="B20" s="7">
+      <c r="B20" s="6">
         <v>2</v>
       </c>
     </row>
@@ -1339,7 +1370,7 @@
       <c r="A21" t="s">
         <v>52</v>
       </c>
-      <c r="B21" s="7">
+      <c r="B21" s="6">
         <v>2</v>
       </c>
     </row>
@@ -1347,7 +1378,7 @@
       <c r="A22" t="s">
         <v>53</v>
       </c>
-      <c r="B22" s="7">
+      <c r="B22" s="6">
         <v>2</v>
       </c>
     </row>
@@ -1355,7 +1386,7 @@
       <c r="A23" t="s">
         <v>54</v>
       </c>
-      <c r="B23" s="7">
+      <c r="B23" s="6">
         <v>2</v>
       </c>
     </row>
@@ -1363,7 +1394,7 @@
       <c r="A24" t="s">
         <v>55</v>
       </c>
-      <c r="B24" s="7">
+      <c r="B24" s="6">
         <v>2</v>
       </c>
     </row>
@@ -1371,15 +1402,15 @@
       <c r="A25" t="s">
         <v>56</v>
       </c>
-      <c r="B25" s="7">
+      <c r="B25" s="6">
         <v>2</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="7" t="s">
+      <c r="A26" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="B26" s="7">
+      <c r="B26" s="6">
         <v>2</v>
       </c>
     </row>
@@ -1387,7 +1418,7 @@
       <c r="A27" t="s">
         <v>57</v>
       </c>
-      <c r="B27" s="7">
+      <c r="B27" s="6">
         <v>2</v>
       </c>
     </row>
@@ -1395,7 +1426,7 @@
       <c r="A28" t="s">
         <v>58</v>
       </c>
-      <c r="B28" s="7">
+      <c r="B28" s="6">
         <v>2</v>
       </c>
     </row>
@@ -1403,7 +1434,7 @@
       <c r="A29" t="s">
         <v>59</v>
       </c>
-      <c r="B29" s="7">
+      <c r="B29" s="6">
         <v>2</v>
       </c>
     </row>
@@ -1411,7 +1442,7 @@
       <c r="A30" t="s">
         <v>61</v>
       </c>
-      <c r="B30" s="7">
+      <c r="B30" s="6">
         <v>2</v>
       </c>
     </row>
@@ -1419,7 +1450,7 @@
       <c r="A31" t="s">
         <v>62</v>
       </c>
-      <c r="B31" s="7">
+      <c r="B31" s="6">
         <v>2</v>
       </c>
     </row>
@@ -1427,7 +1458,7 @@
       <c r="A32" t="s">
         <v>63</v>
       </c>
-      <c r="B32" s="7">
+      <c r="B32" s="6">
         <v>2</v>
       </c>
     </row>
@@ -1435,7 +1466,7 @@
       <c r="A33" t="s">
         <v>64</v>
       </c>
-      <c r="B33" s="7">
+      <c r="B33" s="6">
         <v>2</v>
       </c>
     </row>
@@ -1443,7 +1474,7 @@
       <c r="A34" t="s">
         <v>65</v>
       </c>
-      <c r="B34" s="7">
+      <c r="B34" s="6">
         <v>2</v>
       </c>
     </row>
@@ -1451,7 +1482,7 @@
       <c r="A35" t="s">
         <v>66</v>
       </c>
-      <c r="B35" s="7">
+      <c r="B35" s="6">
         <v>2</v>
       </c>
     </row>
@@ -1459,7 +1490,7 @@
       <c r="A36" t="s">
         <v>67</v>
       </c>
-      <c r="B36" s="7">
+      <c r="B36" s="6">
         <v>2</v>
       </c>
     </row>
@@ -1512,7 +1543,7 @@
       </c>
     </row>
     <row r="42" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A42" s="7" t="s">
+      <c r="A42" s="6" t="s">
         <v>70</v>
       </c>
       <c r="B42" s="1">
@@ -1647,7 +1678,7 @@
       </c>
     </row>
     <row r="57" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A57" s="7" t="s">
+      <c r="A57" s="6" t="s">
         <v>70</v>
       </c>
       <c r="B57" s="1">
@@ -1791,13 +1822,13 @@
       </c>
     </row>
     <row r="72" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A72" s="7" t="s">
+      <c r="A72" s="6" t="s">
         <v>70</v>
       </c>
       <c r="B72" s="1">
         <v>5</v>
       </c>
-      <c r="Y72" s="13"/>
+      <c r="Y72" s="12"/>
       <c r="Z72">
         <v>1</v>
       </c>
@@ -1920,7 +1951,7 @@
       </c>
     </row>
     <row r="85" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A85" s="7" t="s">
+      <c r="A85" s="6" t="s">
         <v>70</v>
       </c>
       <c r="B85" s="1">
@@ -2048,19 +2079,19 @@
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A97" s="7" t="s">
+    <row r="97" spans="1:45" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A97" s="6" t="s">
         <v>70</v>
       </c>
       <c r="B97" s="1">
         <v>7</v>
       </c>
-      <c r="C97" s="7"/>
+      <c r="C97" s="6"/>
       <c r="X97">
         <v>1</v>
       </c>
     </row>
-    <row r="98" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:45" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
         <v>58</v>
       </c>
@@ -2077,7 +2108,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="99" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:45" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
         <v>59</v>
       </c>
@@ -2091,7 +2122,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="100" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:45" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
         <v>61</v>
       </c>
@@ -2105,7 +2136,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="101" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:45" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A101" t="s">
         <v>62</v>
       </c>
@@ -2119,7 +2150,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="102" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:45" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A102" t="s">
         <v>63</v>
       </c>
@@ -2130,7 +2161,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="103" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:45" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A103" t="s">
         <v>65</v>
       </c>
@@ -2144,7 +2175,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="104" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:45" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A104" t="s">
         <v>66</v>
       </c>
@@ -2161,7 +2192,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="105" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:45" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A105" t="s">
         <v>67</v>
       </c>
@@ -2172,6 +2203,110 @@
         <v>1</v>
       </c>
       <c r="Y105">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106" spans="1:45" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A106" t="s">
+        <v>51</v>
+      </c>
+      <c r="B106" s="1">
+        <v>8</v>
+      </c>
+      <c r="Z106">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107" spans="1:45" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A107" t="s">
+        <v>55</v>
+      </c>
+      <c r="B107" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="108" spans="1:45" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A108" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="B108" s="1">
+        <v>8</v>
+      </c>
+      <c r="D108">
+        <v>1</v>
+      </c>
+      <c r="Z108">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109" spans="1:45" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A109" s="67" t="s">
+        <v>58</v>
+      </c>
+      <c r="B109" s="1">
+        <v>8</v>
+      </c>
+      <c r="AS109">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110" spans="1:45" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A110" t="s">
+        <v>61</v>
+      </c>
+      <c r="B110" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="111" spans="1:45" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A111" t="s">
+        <v>62</v>
+      </c>
+      <c r="B111" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="112" spans="1:45" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A112" t="s">
+        <v>63</v>
+      </c>
+      <c r="B112" s="1">
+        <v>8</v>
+      </c>
+      <c r="C112">
+        <v>1</v>
+      </c>
+      <c r="M112">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A113" t="s">
+        <v>65</v>
+      </c>
+      <c r="B113" s="1">
+        <v>8</v>
+      </c>
+      <c r="Z113">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A114" t="s">
+        <v>66</v>
+      </c>
+      <c r="B114" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="115" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A115" t="s">
+        <v>67</v>
+      </c>
+      <c r="B115" s="1">
+        <v>8</v>
+      </c>
+      <c r="Z115">
         <v>1</v>
       </c>
     </row>
@@ -2186,7 +2321,7 @@
   <dimension ref="A1:E990"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+      <selection activeCell="R27" sqref="R26:R27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -2263,24 +2398,24 @@
       </c>
     </row>
     <row r="5" spans="1:5" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A5" s="9">
+      <c r="A5" s="8">
         <v>4</v>
       </c>
-      <c r="B5" s="9">
+      <c r="B5" s="8">
         <v>5</v>
       </c>
-      <c r="C5" s="9">
-        <v>1</v>
-      </c>
-      <c r="D5" s="9">
+      <c r="C5" s="8">
+        <v>1</v>
+      </c>
+      <c r="D5" s="8">
         <v>4</v>
       </c>
-      <c r="E5" s="9">
+      <c r="E5" s="8">
         <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A6" s="10">
+      <c r="A6" s="9">
         <v>5</v>
       </c>
       <c r="B6">
@@ -2297,7 +2432,7 @@
       </c>
     </row>
     <row r="7" spans="1:5" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A7" s="10">
+      <c r="A7" s="9">
         <v>6</v>
       </c>
       <c r="B7">
@@ -2314,7 +2449,7 @@
       </c>
     </row>
     <row r="8" spans="1:5" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A8" s="10">
+      <c r="A8" s="9">
         <v>7</v>
       </c>
       <c r="B8">
@@ -2331,28 +2466,38 @@
       </c>
     </row>
     <row r="9" spans="1:5" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A9" s="4"/>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
+      <c r="A9" s="66">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>4</v>
+      </c>
+      <c r="C9">
+        <v>4</v>
+      </c>
+      <c r="D9">
+        <v>4</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
     </row>
     <row r="10" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="5"/>
+      <c r="A10" s="4"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
     </row>
     <row r="11" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="5"/>
+      <c r="A11" s="4"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
     </row>
     <row r="12" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="6"/>
+      <c r="A12" s="5"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
@@ -3344,10 +3489,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3ABC1FEC-B626-46F0-AE97-C498D904E4E1}">
-  <dimension ref="A1:H39"/>
+  <dimension ref="A1:H48"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView topLeftCell="A33" workbookViewId="0">
+      <selection activeCell="P7" sqref="P7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3362,975 +3507,1219 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A1" s="34" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="35" t="s">
+      <c r="A1" s="33" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="34" t="s">
         <v>34</v>
       </c>
-      <c r="C1" s="35" t="s">
+      <c r="C1" s="34" t="s">
         <v>39</v>
       </c>
-      <c r="D1" s="35" t="s">
+      <c r="D1" s="34" t="s">
         <v>40</v>
       </c>
-      <c r="E1" s="35" t="s">
+      <c r="E1" s="34" t="s">
         <v>35</v>
       </c>
-      <c r="F1" s="35" t="s">
+      <c r="F1" s="34" t="s">
         <v>36</v>
       </c>
-      <c r="G1" s="35" t="s">
+      <c r="G1" s="34" t="s">
         <v>37</v>
       </c>
-      <c r="H1" s="36" t="s">
+      <c r="H1" s="35" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A2" s="37">
-        <v>1</v>
-      </c>
-      <c r="B2" s="15" t="s">
+      <c r="A2" s="36">
+        <v>1</v>
+      </c>
+      <c r="B2" s="14" t="s">
         <v>68</v>
       </c>
-      <c r="C2" s="14"/>
-      <c r="D2" s="16" t="s">
-        <v>69</v>
-      </c>
-      <c r="E2" s="14"/>
-      <c r="F2" s="14"/>
-      <c r="G2" s="14"/>
-      <c r="H2" s="38"/>
+      <c r="C2" s="13"/>
+      <c r="D2" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="E2" s="13"/>
+      <c r="F2" s="13"/>
+      <c r="G2" s="13"/>
+      <c r="H2" s="37"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A3" s="39">
+      <c r="A3" s="38">
         <v>2</v>
       </c>
-      <c r="B3" s="15" t="s">
+      <c r="B3" s="14" t="s">
         <v>68</v>
       </c>
-      <c r="C3" s="14"/>
-      <c r="D3" s="16" t="s">
-        <v>69</v>
-      </c>
-      <c r="E3" s="14"/>
-      <c r="F3" s="14"/>
-      <c r="G3" s="14"/>
-      <c r="H3" s="38"/>
+      <c r="C3" s="13"/>
+      <c r="D3" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="E3" s="13"/>
+      <c r="F3" s="13"/>
+      <c r="G3" s="13"/>
+      <c r="H3" s="37"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A4" s="39">
+      <c r="A4" s="38">
         <v>3</v>
       </c>
-      <c r="B4" s="15" t="s">
+      <c r="B4" s="14" t="s">
         <v>68</v>
       </c>
-      <c r="C4" s="14"/>
-      <c r="D4" s="16" t="s">
-        <v>69</v>
-      </c>
-      <c r="E4" s="14"/>
-      <c r="F4" s="14"/>
-      <c r="G4" s="14"/>
-      <c r="H4" s="38"/>
+      <c r="C4" s="13"/>
+      <c r="D4" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="E4" s="13"/>
+      <c r="F4" s="13"/>
+      <c r="G4" s="13"/>
+      <c r="H4" s="37"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A5" s="39">
+      <c r="A5" s="38">
         <v>4</v>
       </c>
-      <c r="B5" s="17" t="s">
+      <c r="B5" s="16" t="s">
         <v>73</v>
       </c>
-      <c r="C5" s="17" t="s">
+      <c r="C5" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="D5" s="18" t="s">
-        <v>72</v>
-      </c>
-      <c r="E5" s="14" t="s">
+      <c r="D5" s="17" t="s">
+        <v>72</v>
+      </c>
+      <c r="E5" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="F5" s="14" t="s">
+      <c r="F5" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="G5" s="14" t="s">
+      <c r="G5" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="H5" s="38" t="s">
+      <c r="H5" s="37" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A6" s="39">
+      <c r="A6" s="38">
         <v>4</v>
       </c>
-      <c r="B6" s="17" t="s">
+      <c r="B6" s="16" t="s">
         <v>74</v>
       </c>
-      <c r="C6" s="17" t="s">
+      <c r="C6" s="16" t="s">
         <v>61</v>
       </c>
-      <c r="D6" s="18" t="s">
-        <v>72</v>
-      </c>
-      <c r="E6" s="14" t="s">
+      <c r="D6" s="17" t="s">
+        <v>72</v>
+      </c>
+      <c r="E6" s="13" t="s">
         <v>70</v>
       </c>
-      <c r="F6" s="14" t="s">
+      <c r="F6" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="G6" s="14" t="s">
+      <c r="G6" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="H6" s="38" t="s">
+      <c r="H6" s="37" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="58" x14ac:dyDescent="0.35">
-      <c r="A7" s="39">
+      <c r="A7" s="38">
         <v>4</v>
       </c>
-      <c r="B7" s="19" t="s">
+      <c r="B7" s="18" t="s">
         <v>75</v>
       </c>
-      <c r="C7" s="19" t="s">
+      <c r="C7" s="18" t="s">
         <v>81</v>
       </c>
-      <c r="D7" s="18" t="s">
-        <v>72</v>
-      </c>
-      <c r="E7" s="20" t="s">
+      <c r="D7" s="17" t="s">
+        <v>72</v>
+      </c>
+      <c r="E7" s="19" t="s">
         <v>58</v>
       </c>
-      <c r="F7" s="14" t="s">
+      <c r="F7" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="G7" s="20" t="s">
+      <c r="G7" s="19" t="s">
         <v>57</v>
       </c>
-      <c r="H7" s="38" t="s">
+      <c r="H7" s="37" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A8" s="39">
+      <c r="A8" s="38">
         <v>4</v>
       </c>
-      <c r="B8" s="14" t="s">
+      <c r="B8" s="13" t="s">
         <v>76</v>
       </c>
-      <c r="C8" s="17" t="s">
+      <c r="C8" s="16" t="s">
         <v>82</v>
       </c>
-      <c r="D8" s="18" t="s">
-        <v>69</v>
-      </c>
-      <c r="E8" s="21" t="s">
+      <c r="D8" s="17" t="s">
+        <v>69</v>
+      </c>
+      <c r="E8" s="20" t="s">
         <v>51</v>
       </c>
-      <c r="F8" s="21" t="s">
+      <c r="F8" s="20" t="s">
         <v>59</v>
       </c>
-      <c r="G8" s="21" t="s">
+      <c r="G8" s="20" t="s">
         <v>54</v>
       </c>
-      <c r="H8" s="40" t="s">
+      <c r="H8" s="39" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A9" s="39">
+      <c r="A9" s="38">
         <v>4</v>
       </c>
-      <c r="B9" s="14" t="s">
+      <c r="B9" s="13" t="s">
         <v>77</v>
       </c>
-      <c r="C9" s="17" t="s">
-        <v>72</v>
-      </c>
-      <c r="D9" s="18" t="s">
-        <v>72</v>
-      </c>
-      <c r="E9" s="20" t="s">
-        <v>72</v>
-      </c>
-      <c r="F9" s="14" t="s">
-        <v>69</v>
-      </c>
-      <c r="G9" s="20" t="s">
-        <v>72</v>
-      </c>
-      <c r="H9" s="41" t="s">
+      <c r="C9" s="16" t="s">
+        <v>72</v>
+      </c>
+      <c r="D9" s="17" t="s">
+        <v>72</v>
+      </c>
+      <c r="E9" s="19" t="s">
+        <v>72</v>
+      </c>
+      <c r="F9" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="G9" s="19" t="s">
+        <v>72</v>
+      </c>
+      <c r="H9" s="40" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A10" s="39">
+      <c r="A10" s="38">
         <v>4</v>
       </c>
-      <c r="B10" s="14" t="s">
+      <c r="B10" s="13" t="s">
         <v>78</v>
       </c>
-      <c r="C10" s="17" t="s">
-        <v>72</v>
-      </c>
-      <c r="D10" s="18" t="s">
-        <v>72</v>
-      </c>
-      <c r="E10" s="20" t="s">
-        <v>72</v>
-      </c>
-      <c r="F10" s="14" t="s">
-        <v>69</v>
-      </c>
-      <c r="G10" s="20" t="s">
-        <v>72</v>
-      </c>
-      <c r="H10" s="41" t="s">
+      <c r="C10" s="16" t="s">
+        <v>72</v>
+      </c>
+      <c r="D10" s="17" t="s">
+        <v>72</v>
+      </c>
+      <c r="E10" s="19" t="s">
+        <v>72</v>
+      </c>
+      <c r="F10" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="G10" s="19" t="s">
+        <v>72</v>
+      </c>
+      <c r="H10" s="40" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A11" s="39">
+      <c r="A11" s="38">
         <v>4</v>
       </c>
-      <c r="B11" s="17" t="s">
+      <c r="B11" s="16" t="s">
         <v>79</v>
       </c>
-      <c r="C11" s="17" t="s">
-        <v>69</v>
-      </c>
-      <c r="D11" s="18" t="s">
-        <v>72</v>
-      </c>
-      <c r="E11" s="20" t="s">
-        <v>69</v>
-      </c>
-      <c r="F11" s="20" t="s">
-        <v>69</v>
-      </c>
-      <c r="G11" s="20" t="s">
-        <v>69</v>
-      </c>
-      <c r="H11" s="38" t="s">
+      <c r="C11" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="D11" s="17" t="s">
+        <v>72</v>
+      </c>
+      <c r="E11" s="19" t="s">
+        <v>69</v>
+      </c>
+      <c r="F11" s="19" t="s">
+        <v>69</v>
+      </c>
+      <c r="G11" s="19" t="s">
+        <v>69</v>
+      </c>
+      <c r="H11" s="37" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A12" s="39">
+      <c r="A12" s="38">
         <v>4</v>
       </c>
-      <c r="B12" s="17" t="s">
+      <c r="B12" s="16" t="s">
         <v>80</v>
       </c>
-      <c r="C12" s="17" t="s">
+      <c r="C12" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="D12" s="18" t="s">
-        <v>72</v>
-      </c>
-      <c r="E12" s="20" t="s">
+      <c r="D12" s="17" t="s">
+        <v>72</v>
+      </c>
+      <c r="E12" s="19" t="s">
         <v>57</v>
       </c>
-      <c r="F12" s="14" t="s">
+      <c r="F12" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="G12" s="14" t="s">
+      <c r="G12" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="H12" s="38" t="s">
+      <c r="H12" s="37" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A13" s="11">
+      <c r="A13" s="10">
         <v>5</v>
       </c>
-      <c r="B13" s="12" t="s">
+      <c r="B13" s="11" t="s">
         <v>99</v>
       </c>
-      <c r="C13" s="22" t="s">
+      <c r="C13" s="21" t="s">
         <v>62</v>
       </c>
-      <c r="D13" s="22" t="s">
-        <v>72</v>
-      </c>
-      <c r="E13" s="22" t="s">
+      <c r="D13" s="21" t="s">
+        <v>72</v>
+      </c>
+      <c r="E13" s="21" t="s">
         <v>61</v>
       </c>
-      <c r="F13" s="23" t="s">
+      <c r="F13" s="22" t="s">
         <v>62</v>
       </c>
-      <c r="G13" s="22" t="s">
+      <c r="G13" s="21" t="s">
         <v>63</v>
       </c>
-      <c r="H13" s="42" t="s">
+      <c r="H13" s="41" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A14" s="11">
+      <c r="A14" s="10">
         <v>5</v>
       </c>
-      <c r="B14" s="12" t="s">
+      <c r="B14" s="11" t="s">
         <v>74</v>
       </c>
-      <c r="C14" s="24" t="s">
+      <c r="C14" s="23" t="s">
         <v>82</v>
       </c>
-      <c r="D14" s="24" t="s">
-        <v>69</v>
-      </c>
-      <c r="E14" s="25" t="s">
+      <c r="D14" s="23" t="s">
+        <v>69</v>
+      </c>
+      <c r="E14" s="24" t="s">
         <v>59</v>
       </c>
-      <c r="F14" s="25" t="s">
+      <c r="F14" s="24" t="s">
         <v>58</v>
       </c>
-      <c r="G14" s="25" t="s">
+      <c r="G14" s="24" t="s">
         <v>58</v>
       </c>
-      <c r="H14" s="43" t="s">
+      <c r="H14" s="42" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A15" s="11">
+      <c r="A15" s="10">
         <v>5</v>
       </c>
-      <c r="B15" s="12" t="s">
+      <c r="B15" s="11" t="s">
         <v>78</v>
       </c>
-      <c r="C15" s="26" t="s">
-        <v>72</v>
-      </c>
-      <c r="D15" s="14" t="s">
-        <v>72</v>
-      </c>
-      <c r="E15" s="20" t="s">
-        <v>72</v>
-      </c>
-      <c r="F15" s="20" t="s">
-        <v>72</v>
-      </c>
-      <c r="G15" s="20" t="s">
-        <v>72</v>
-      </c>
-      <c r="H15" s="41" t="s">
+      <c r="C15" s="25" t="s">
+        <v>72</v>
+      </c>
+      <c r="D15" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="E15" s="19" t="s">
+        <v>72</v>
+      </c>
+      <c r="F15" s="19" t="s">
+        <v>72</v>
+      </c>
+      <c r="G15" s="19" t="s">
+        <v>72</v>
+      </c>
+      <c r="H15" s="40" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A16" s="11">
+      <c r="A16" s="10">
         <v>5</v>
       </c>
-      <c r="B16" s="12" t="s">
+      <c r="B16" s="11" t="s">
         <v>83</v>
       </c>
-      <c r="C16" s="27" t="s">
+      <c r="C16" s="26" t="s">
         <v>92</v>
       </c>
-      <c r="D16" s="27" t="s">
-        <v>69</v>
-      </c>
-      <c r="E16" s="28" t="s">
+      <c r="D16" s="26" t="s">
+        <v>69</v>
+      </c>
+      <c r="E16" s="27" t="s">
         <v>87</v>
       </c>
-      <c r="F16" s="28" t="s">
+      <c r="F16" s="27" t="s">
         <v>86</v>
       </c>
-      <c r="G16" s="28" t="s">
+      <c r="G16" s="27" t="s">
         <v>86</v>
       </c>
-      <c r="H16" s="44" t="s">
+      <c r="H16" s="43" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A17" s="11">
+      <c r="A17" s="10">
         <v>5</v>
       </c>
-      <c r="B17" s="12" t="s">
+      <c r="B17" s="11" t="s">
         <v>84</v>
       </c>
-      <c r="C17" s="26" t="s">
+      <c r="C17" s="25" t="s">
         <v>86</v>
       </c>
-      <c r="D17" s="14" t="s">
-        <v>72</v>
-      </c>
-      <c r="E17" s="20" t="s">
+      <c r="D17" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="E17" s="19" t="s">
         <v>86</v>
       </c>
-      <c r="F17" s="14" t="s">
+      <c r="F17" s="13" t="s">
         <v>87</v>
       </c>
-      <c r="G17" s="20" t="s">
+      <c r="G17" s="19" t="s">
         <v>86</v>
       </c>
-      <c r="H17" s="41" t="s">
+      <c r="H17" s="40" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A18" s="11">
+      <c r="A18" s="10">
         <v>5</v>
       </c>
-      <c r="B18" s="12" t="s">
+      <c r="B18" s="11" t="s">
         <v>77</v>
       </c>
-      <c r="C18" s="26" t="s">
-        <v>72</v>
-      </c>
-      <c r="D18" s="14" t="s">
-        <v>72</v>
-      </c>
-      <c r="E18" s="14" t="s">
-        <v>69</v>
-      </c>
-      <c r="F18" s="14" t="s">
-        <v>69</v>
-      </c>
-      <c r="G18" s="20" t="s">
-        <v>72</v>
-      </c>
-      <c r="H18" s="41" t="s">
+      <c r="C18" s="25" t="s">
+        <v>72</v>
+      </c>
+      <c r="D18" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="E18" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="F18" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="G18" s="19" t="s">
+        <v>72</v>
+      </c>
+      <c r="H18" s="40" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A19" s="11">
+      <c r="A19" s="10">
         <v>5</v>
       </c>
-      <c r="B19" s="12" t="s">
+      <c r="B19" s="11" t="s">
         <v>85</v>
       </c>
-      <c r="C19" s="22" t="s">
-        <v>69</v>
-      </c>
-      <c r="D19" s="14" t="s">
-        <v>72</v>
-      </c>
-      <c r="E19" s="20" t="s">
-        <v>69</v>
-      </c>
-      <c r="F19" s="20" t="s">
-        <v>69</v>
-      </c>
-      <c r="G19" s="20" t="s">
-        <v>69</v>
-      </c>
-      <c r="H19" s="41" t="s">
+      <c r="C19" s="21" t="s">
+        <v>69</v>
+      </c>
+      <c r="D19" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="E19" s="19" t="s">
+        <v>69</v>
+      </c>
+      <c r="F19" s="19" t="s">
+        <v>69</v>
+      </c>
+      <c r="G19" s="19" t="s">
+        <v>69</v>
+      </c>
+      <c r="H19" s="40" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A20" s="11">
+      <c r="A20" s="10">
         <v>5</v>
       </c>
-      <c r="B20" s="12" t="s">
+      <c r="B20" s="11" t="s">
         <v>80</v>
       </c>
-      <c r="C20" s="22" t="s">
+      <c r="C20" s="21" t="s">
         <v>54</v>
       </c>
-      <c r="D20" s="14" t="s">
-        <v>72</v>
-      </c>
-      <c r="E20" s="23" t="s">
+      <c r="D20" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="E20" s="22" t="s">
         <v>54</v>
       </c>
-      <c r="F20" s="14" t="s">
+      <c r="F20" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="G20" s="14" t="s">
+      <c r="G20" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="H20" s="38" t="s">
+      <c r="H20" s="37" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="35.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="39">
+      <c r="A21" s="38">
         <v>6</v>
       </c>
-      <c r="B21" s="29" t="s">
+      <c r="B21" s="28" t="s">
         <v>98</v>
       </c>
-      <c r="C21" s="30" t="s">
+      <c r="C21" s="29" t="s">
         <v>61</v>
       </c>
-      <c r="D21" s="31" t="s">
-        <v>69</v>
-      </c>
-      <c r="E21" s="29" t="s">
+      <c r="D21" s="30" t="s">
+        <v>69</v>
+      </c>
+      <c r="E21" s="28" t="s">
         <v>65</v>
       </c>
-      <c r="F21" s="29" t="s">
+      <c r="F21" s="28" t="s">
         <v>59</v>
       </c>
-      <c r="G21" s="29" t="s">
+      <c r="G21" s="28" t="s">
         <v>62</v>
       </c>
-      <c r="H21" s="45" t="s">
+      <c r="H21" s="44" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A22" s="39">
+      <c r="A22" s="38">
         <v>6</v>
       </c>
-      <c r="B22" s="29" t="s">
+      <c r="B22" s="28" t="s">
         <v>74</v>
       </c>
-      <c r="C22" s="30" t="s">
+      <c r="C22" s="29" t="s">
         <v>82</v>
       </c>
-      <c r="D22" s="30" t="s">
-        <v>69</v>
-      </c>
-      <c r="E22" s="29" t="s">
+      <c r="D22" s="29" t="s">
+        <v>69</v>
+      </c>
+      <c r="E22" s="28" t="s">
         <v>58</v>
       </c>
-      <c r="F22" s="29" t="s">
+      <c r="F22" s="28" t="s">
         <v>63</v>
       </c>
-      <c r="G22" s="29" t="s">
+      <c r="G22" s="28" t="s">
         <v>58</v>
       </c>
-      <c r="H22" s="45" t="s">
+      <c r="H22" s="44" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A23" s="39">
+      <c r="A23" s="38">
         <v>6</v>
       </c>
-      <c r="B23" s="32" t="s">
+      <c r="B23" s="31" t="s">
         <v>78</v>
       </c>
-      <c r="C23" s="14" t="s">
-        <v>72</v>
-      </c>
-      <c r="D23" s="14"/>
-      <c r="E23" s="33" t="s">
-        <v>72</v>
-      </c>
-      <c r="F23" s="32" t="s">
-        <v>69</v>
-      </c>
-      <c r="G23" s="33" t="s">
-        <v>72</v>
-      </c>
-      <c r="H23" s="46" t="s">
+      <c r="C23" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="D23" s="13"/>
+      <c r="E23" s="32" t="s">
+        <v>72</v>
+      </c>
+      <c r="F23" s="31" t="s">
+        <v>69</v>
+      </c>
+      <c r="G23" s="32" t="s">
+        <v>72</v>
+      </c>
+      <c r="H23" s="45" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A24" s="39">
+      <c r="A24" s="38">
         <v>6</v>
       </c>
-      <c r="B24" s="29" t="s">
+      <c r="B24" s="28" t="s">
         <v>83</v>
       </c>
-      <c r="C24" s="30" t="s">
+      <c r="C24" s="29" t="s">
         <v>87</v>
       </c>
-      <c r="D24" s="30" t="s">
-        <v>69</v>
-      </c>
-      <c r="E24" s="29" t="s">
+      <c r="D24" s="29" t="s">
+        <v>69</v>
+      </c>
+      <c r="E24" s="28" t="s">
         <v>87</v>
       </c>
-      <c r="F24" s="29" t="s">
+      <c r="F24" s="28" t="s">
         <v>87</v>
       </c>
-      <c r="G24" s="29" t="s">
+      <c r="G24" s="28" t="s">
         <v>87</v>
       </c>
-      <c r="H24" s="45" t="s">
+      <c r="H24" s="44" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A25" s="39">
+      <c r="A25" s="38">
         <v>6</v>
       </c>
-      <c r="B25" s="29" t="s">
+      <c r="B25" s="28" t="s">
         <v>84</v>
       </c>
-      <c r="C25" s="30" t="s">
+      <c r="C25" s="29" t="s">
         <v>87</v>
       </c>
-      <c r="D25" s="30" t="s">
-        <v>69</v>
-      </c>
-      <c r="E25" s="29" t="s">
+      <c r="D25" s="29" t="s">
+        <v>69</v>
+      </c>
+      <c r="E25" s="28" t="s">
         <v>87</v>
       </c>
-      <c r="F25" s="29" t="s">
+      <c r="F25" s="28" t="s">
         <v>87</v>
       </c>
-      <c r="G25" s="29" t="s">
+      <c r="G25" s="28" t="s">
         <v>87</v>
       </c>
-      <c r="H25" s="45" t="s">
+      <c r="H25" s="44" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A26" s="39">
+      <c r="A26" s="38">
         <v>6</v>
       </c>
-      <c r="B26" s="32" t="s">
+      <c r="B26" s="31" t="s">
         <v>77</v>
       </c>
-      <c r="C26" s="26" t="s">
-        <v>72</v>
-      </c>
-      <c r="D26" s="14"/>
-      <c r="E26" s="33" t="s">
-        <v>72</v>
-      </c>
-      <c r="F26" s="32" t="s">
-        <v>69</v>
-      </c>
-      <c r="G26" s="33" t="s">
-        <v>72</v>
-      </c>
-      <c r="H26" s="46" t="s">
+      <c r="C26" s="25" t="s">
+        <v>72</v>
+      </c>
+      <c r="D26" s="63" t="s">
+        <v>72</v>
+      </c>
+      <c r="E26" s="32" t="s">
+        <v>72</v>
+      </c>
+      <c r="F26" s="31" t="s">
+        <v>69</v>
+      </c>
+      <c r="G26" s="32" t="s">
+        <v>72</v>
+      </c>
+      <c r="H26" s="45" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="26" x14ac:dyDescent="0.35">
-      <c r="A27" s="39">
+      <c r="A27" s="38">
         <v>6</v>
       </c>
-      <c r="B27" s="32" t="s">
+      <c r="B27" s="31" t="s">
         <v>89</v>
       </c>
-      <c r="C27" s="14" t="s">
+      <c r="C27" s="13" t="s">
         <v>91</v>
       </c>
-      <c r="D27" s="14"/>
-      <c r="E27" s="33" t="s">
+      <c r="D27" s="63" t="s">
+        <v>72</v>
+      </c>
+      <c r="E27" s="32" t="s">
         <v>91</v>
       </c>
-      <c r="F27" s="33" t="s">
+      <c r="F27" s="32" t="s">
         <v>91</v>
       </c>
-      <c r="G27" s="32" t="s">
+      <c r="G27" s="31" t="s">
         <v>90</v>
       </c>
-      <c r="H27" s="46" t="s">
+      <c r="H27" s="45" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A28" s="39">
+      <c r="A28" s="38">
         <v>6</v>
       </c>
-      <c r="B28" s="32" t="s">
+      <c r="B28" s="31" t="s">
         <v>85</v>
       </c>
-      <c r="C28" s="14" t="s">
-        <v>69</v>
-      </c>
-      <c r="D28" s="14"/>
-      <c r="E28" s="33" t="s">
-        <v>69</v>
-      </c>
-      <c r="F28" s="33" t="s">
-        <v>69</v>
-      </c>
-      <c r="G28" s="33" t="s">
-        <v>69</v>
-      </c>
-      <c r="H28" s="46" t="s">
+      <c r="C28" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="D28" s="63" t="s">
+        <v>72</v>
+      </c>
+      <c r="E28" s="32" t="s">
+        <v>69</v>
+      </c>
+      <c r="F28" s="32" t="s">
+        <v>69</v>
+      </c>
+      <c r="G28" s="32" t="s">
+        <v>69</v>
+      </c>
+      <c r="H28" s="45" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="29" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A29" s="53">
+      <c r="A29" s="50">
         <v>6</v>
       </c>
-      <c r="B29" s="54" t="s">
+      <c r="B29" s="51" t="s">
         <v>80</v>
       </c>
-      <c r="C29" s="55" t="s">
+      <c r="C29" s="52" t="s">
         <v>64</v>
       </c>
-      <c r="D29" s="56"/>
-      <c r="E29" s="57" t="s">
+      <c r="D29" s="63" t="s">
+        <v>72</v>
+      </c>
+      <c r="E29" s="53" t="s">
         <v>64</v>
       </c>
-      <c r="F29" s="54" t="s">
+      <c r="F29" s="51" t="s">
         <v>55</v>
       </c>
-      <c r="G29" s="57" t="s">
+      <c r="G29" s="53" t="s">
         <v>64</v>
       </c>
-      <c r="H29" s="58" t="s">
+      <c r="H29" s="54" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A30" s="59">
+      <c r="A30" s="55">
         <v>7</v>
       </c>
-      <c r="B30" s="60" t="s">
+      <c r="B30" s="56" t="s">
         <v>88</v>
       </c>
-      <c r="C30" s="61" t="s">
+      <c r="C30" s="57" t="s">
         <v>61</v>
       </c>
-      <c r="D30" s="61" t="s">
-        <v>72</v>
-      </c>
-      <c r="E30" s="60" t="s">
+      <c r="D30" s="57" t="s">
+        <v>72</v>
+      </c>
+      <c r="E30" s="56" t="s">
         <v>62</v>
       </c>
-      <c r="F30" s="60" t="s">
+      <c r="F30" s="56" t="s">
         <v>59</v>
       </c>
-      <c r="G30" s="60" t="s">
+      <c r="G30" s="56" t="s">
         <v>63</v>
       </c>
-      <c r="H30" s="62" t="s">
+      <c r="H30" s="58" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A31" s="39">
+      <c r="A31" s="38">
         <v>7</v>
       </c>
-      <c r="B31" s="32" t="s">
+      <c r="B31" s="31" t="s">
         <v>74</v>
       </c>
-      <c r="C31" s="32" t="s">
+      <c r="C31" s="31" t="s">
         <v>58</v>
       </c>
-      <c r="D31" s="22" t="s">
-        <v>72</v>
-      </c>
-      <c r="E31" s="33" t="s">
+      <c r="D31" s="21" t="s">
+        <v>72</v>
+      </c>
+      <c r="E31" s="32" t="s">
         <v>58</v>
       </c>
-      <c r="F31" s="32" t="s">
+      <c r="F31" s="31" t="s">
         <v>65</v>
       </c>
-      <c r="G31" s="33" t="s">
+      <c r="G31" s="32" t="s">
         <v>58</v>
       </c>
-      <c r="H31" s="47" t="s">
+      <c r="H31" s="46" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="32" spans="1:8" ht="26" x14ac:dyDescent="0.35">
-      <c r="A32" s="39">
+      <c r="A32" s="38">
         <v>7</v>
       </c>
-      <c r="B32" s="32" t="s">
+      <c r="B32" s="31" t="s">
         <v>93</v>
       </c>
-      <c r="C32" s="14" t="s">
+      <c r="C32" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="D32" s="22" t="s">
-        <v>72</v>
-      </c>
-      <c r="E32" s="33" t="s">
+      <c r="D32" s="21" t="s">
+        <v>72</v>
+      </c>
+      <c r="E32" s="32" t="s">
         <v>58</v>
       </c>
-      <c r="F32" s="33" t="s">
+      <c r="F32" s="32" t="s">
         <v>58</v>
       </c>
-      <c r="G32" s="33" t="s">
+      <c r="G32" s="32" t="s">
         <v>58</v>
       </c>
-      <c r="H32" s="46" t="s">
+      <c r="H32" s="45" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="33" spans="1:8" ht="38.5" x14ac:dyDescent="0.35">
-      <c r="A33" s="39">
+      <c r="A33" s="38">
         <v>7</v>
       </c>
-      <c r="B33" s="32" t="s">
+      <c r="B33" s="31" t="s">
         <v>94</v>
       </c>
-      <c r="C33" s="14" t="s">
-        <v>69</v>
-      </c>
-      <c r="D33" s="22" t="s">
-        <v>72</v>
-      </c>
-      <c r="E33" s="33" t="s">
-        <v>69</v>
-      </c>
-      <c r="F33" s="33" t="s">
-        <v>69</v>
-      </c>
-      <c r="G33" s="33" t="s">
-        <v>69</v>
-      </c>
-      <c r="H33" s="47" t="s">
+      <c r="C33" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="D33" s="21" t="s">
+        <v>72</v>
+      </c>
+      <c r="E33" s="32" t="s">
+        <v>69</v>
+      </c>
+      <c r="F33" s="32" t="s">
+        <v>69</v>
+      </c>
+      <c r="G33" s="32" t="s">
+        <v>69</v>
+      </c>
+      <c r="H33" s="46" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="34" spans="1:8" ht="38.5" x14ac:dyDescent="0.35">
-      <c r="A34" s="39">
+      <c r="A34" s="38">
         <v>7</v>
       </c>
-      <c r="B34" s="32" t="s">
+      <c r="B34" s="31" t="s">
         <v>95</v>
       </c>
-      <c r="C34" s="14" t="s">
-        <v>72</v>
-      </c>
-      <c r="D34" s="22" t="s">
-        <v>72</v>
-      </c>
-      <c r="E34" s="33" t="s">
-        <v>72</v>
-      </c>
-      <c r="F34" s="33" t="s">
-        <v>72</v>
-      </c>
-      <c r="G34" s="32" t="s">
-        <v>69</v>
-      </c>
-      <c r="H34" s="47" t="s">
+      <c r="C34" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="D34" s="21" t="s">
+        <v>72</v>
+      </c>
+      <c r="E34" s="32" t="s">
+        <v>72</v>
+      </c>
+      <c r="F34" s="32" t="s">
+        <v>72</v>
+      </c>
+      <c r="G34" s="31" t="s">
+        <v>69</v>
+      </c>
+      <c r="H34" s="46" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A35" s="39">
+      <c r="A35" s="38">
         <v>7</v>
       </c>
-      <c r="B35" s="32" t="s">
+      <c r="B35" s="31" t="s">
         <v>78</v>
       </c>
-      <c r="C35" s="14" t="s">
-        <v>72</v>
-      </c>
-      <c r="D35" s="22" t="s">
-        <v>72</v>
-      </c>
-      <c r="E35" s="33" t="s">
-        <v>72</v>
-      </c>
-      <c r="F35" s="32" t="s">
-        <v>69</v>
-      </c>
-      <c r="G35" s="32" t="s">
-        <v>69</v>
-      </c>
-      <c r="H35" s="46" t="s">
+      <c r="C35" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="D35" s="21" t="s">
+        <v>72</v>
+      </c>
+      <c r="E35" s="32" t="s">
+        <v>72</v>
+      </c>
+      <c r="F35" s="31" t="s">
+        <v>69</v>
+      </c>
+      <c r="G35" s="31" t="s">
+        <v>69</v>
+      </c>
+      <c r="H35" s="45" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A36" s="39">
+      <c r="A36" s="38">
         <v>7</v>
       </c>
-      <c r="B36" s="32" t="s">
+      <c r="B36" s="31" t="s">
         <v>77</v>
       </c>
-      <c r="C36" s="14" t="s">
-        <v>72</v>
-      </c>
-      <c r="D36" s="22" t="s">
-        <v>72</v>
-      </c>
-      <c r="E36" s="32" t="s">
-        <v>69</v>
-      </c>
-      <c r="F36" s="33" t="s">
-        <v>72</v>
-      </c>
-      <c r="G36" s="33" t="s">
-        <v>72</v>
-      </c>
-      <c r="H36" s="46" t="s">
+      <c r="C36" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="D36" s="21" t="s">
+        <v>72</v>
+      </c>
+      <c r="E36" s="31" t="s">
+        <v>69</v>
+      </c>
+      <c r="F36" s="32" t="s">
+        <v>72</v>
+      </c>
+      <c r="G36" s="32" t="s">
+        <v>72</v>
+      </c>
+      <c r="H36" s="45" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="37" spans="1:8" ht="26" x14ac:dyDescent="0.35">
-      <c r="A37" s="39">
+      <c r="A37" s="38">
         <v>7</v>
       </c>
-      <c r="B37" s="32" t="s">
+      <c r="B37" s="31" t="s">
         <v>96</v>
       </c>
-      <c r="C37" s="14" t="s">
-        <v>69</v>
-      </c>
-      <c r="D37" s="22" t="s">
-        <v>72</v>
-      </c>
-      <c r="E37" s="33" t="s">
-        <v>69</v>
-      </c>
-      <c r="F37" s="33" t="s">
-        <v>69</v>
-      </c>
-      <c r="G37" s="32" t="s">
-        <v>72</v>
-      </c>
-      <c r="H37" s="47" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A38" s="39">
+      <c r="C37" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="D37" s="21" t="s">
+        <v>72</v>
+      </c>
+      <c r="E37" s="32" t="s">
+        <v>69</v>
+      </c>
+      <c r="F37" s="32" t="s">
+        <v>69</v>
+      </c>
+      <c r="G37" s="31" t="s">
+        <v>72</v>
+      </c>
+      <c r="H37" s="46" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A38" s="38">
         <v>7</v>
       </c>
-      <c r="B38" s="32" t="s">
+      <c r="B38" s="31" t="s">
         <v>97</v>
       </c>
-      <c r="C38" s="22" t="s">
-        <v>72</v>
-      </c>
-      <c r="D38" s="14"/>
-      <c r="E38" s="32" t="s">
-        <v>69</v>
-      </c>
-      <c r="F38" s="32" t="s">
-        <v>69</v>
-      </c>
-      <c r="G38" s="32" t="s">
-        <v>69</v>
-      </c>
-      <c r="H38" s="46" t="s">
+      <c r="C38" s="21" t="s">
+        <v>72</v>
+      </c>
+      <c r="D38" s="49" t="s">
+        <v>72</v>
+      </c>
+      <c r="E38" s="31" t="s">
+        <v>69</v>
+      </c>
+      <c r="F38" s="31" t="s">
+        <v>69</v>
+      </c>
+      <c r="G38" s="31" t="s">
+        <v>69</v>
+      </c>
+      <c r="H38" s="45" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="39" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A39" s="48">
+      <c r="A39" s="50">
         <v>7</v>
       </c>
-      <c r="B39" s="49" t="s">
+      <c r="B39" s="51" t="s">
         <v>80</v>
       </c>
-      <c r="C39" s="50" t="s">
+      <c r="C39" s="52" t="s">
         <v>59</v>
       </c>
-      <c r="D39" s="50" t="s">
-        <v>72</v>
-      </c>
-      <c r="E39" s="49" t="s">
+      <c r="D39" s="52" t="s">
+        <v>72</v>
+      </c>
+      <c r="E39" s="51" t="s">
         <v>55</v>
       </c>
-      <c r="F39" s="51" t="s">
+      <c r="F39" s="53" t="s">
         <v>59</v>
       </c>
-      <c r="G39" s="49" t="s">
+      <c r="G39" s="51" t="s">
         <v>55</v>
       </c>
-      <c r="H39" s="52" t="s">
+      <c r="H39" s="54" t="s">
         <v>59</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A40" s="33">
+        <v>8</v>
+      </c>
+      <c r="B40" s="59" t="s">
+        <v>100</v>
+      </c>
+      <c r="C40" s="59" t="s">
+        <v>63</v>
+      </c>
+      <c r="D40" s="60" t="s">
+        <v>72</v>
+      </c>
+      <c r="E40" s="59" t="s">
+        <v>67</v>
+      </c>
+      <c r="F40" s="59" t="s">
+        <v>62</v>
+      </c>
+      <c r="G40" s="59" t="s">
+        <v>55</v>
+      </c>
+      <c r="H40" s="61" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A41" s="38">
+        <v>8</v>
+      </c>
+      <c r="B41" s="31" t="s">
+        <v>74</v>
+      </c>
+      <c r="C41" s="31" t="s">
+        <v>70</v>
+      </c>
+      <c r="D41" s="21" t="s">
+        <v>72</v>
+      </c>
+      <c r="E41" s="31" t="s">
+        <v>63</v>
+      </c>
+      <c r="F41" s="31" t="s">
+        <v>62</v>
+      </c>
+      <c r="G41" s="31" t="s">
+        <v>58</v>
+      </c>
+      <c r="H41" s="46" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A42" s="38">
+        <v>8</v>
+      </c>
+      <c r="B42" s="31" t="s">
+        <v>101</v>
+      </c>
+      <c r="C42" s="63" t="s">
+        <v>63</v>
+      </c>
+      <c r="D42" s="21" t="s">
+        <v>72</v>
+      </c>
+      <c r="E42" s="31" t="s">
+        <v>58</v>
+      </c>
+      <c r="F42" s="31" t="s">
+        <v>58</v>
+      </c>
+      <c r="G42" s="31" t="s">
+        <v>58</v>
+      </c>
+      <c r="H42" s="46" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A43" s="38">
+        <v>8</v>
+      </c>
+      <c r="B43" s="31" t="s">
+        <v>102</v>
+      </c>
+      <c r="C43" s="63" t="s">
+        <v>69</v>
+      </c>
+      <c r="D43" s="21" t="s">
+        <v>72</v>
+      </c>
+      <c r="E43" s="65" t="s">
+        <v>72</v>
+      </c>
+      <c r="F43" s="32" t="s">
+        <v>69</v>
+      </c>
+      <c r="G43" s="32" t="s">
+        <v>69</v>
+      </c>
+      <c r="H43" s="45" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A44" s="38">
+        <v>8</v>
+      </c>
+      <c r="B44" s="31" t="s">
+        <v>78</v>
+      </c>
+      <c r="C44" s="63" t="s">
+        <v>72</v>
+      </c>
+      <c r="D44" s="21" t="s">
+        <v>72</v>
+      </c>
+      <c r="E44" s="32" t="s">
+        <v>72</v>
+      </c>
+      <c r="F44" s="31" t="s">
+        <v>69</v>
+      </c>
+      <c r="G44" s="31" t="s">
+        <v>69</v>
+      </c>
+      <c r="H44" s="46" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A45" s="38">
+        <v>8</v>
+      </c>
+      <c r="B45" s="31" t="s">
+        <v>77</v>
+      </c>
+      <c r="C45" s="63" t="s">
+        <v>72</v>
+      </c>
+      <c r="D45" s="21" t="s">
+        <v>72</v>
+      </c>
+      <c r="E45" s="32" t="s">
+        <v>72</v>
+      </c>
+      <c r="F45" s="32" t="s">
+        <v>72</v>
+      </c>
+      <c r="G45" s="32" t="s">
+        <v>72</v>
+      </c>
+      <c r="H45" s="45" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A46" s="38">
+        <v>8</v>
+      </c>
+      <c r="B46" s="31" t="s">
+        <v>103</v>
+      </c>
+      <c r="C46" s="63" t="s">
+        <v>72</v>
+      </c>
+      <c r="D46" s="21" t="s">
+        <v>72</v>
+      </c>
+      <c r="E46" s="32" t="s">
+        <v>72</v>
+      </c>
+      <c r="F46" s="32" t="s">
+        <v>72</v>
+      </c>
+      <c r="G46" s="32" t="s">
+        <v>72</v>
+      </c>
+      <c r="H46" s="45" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A47" s="38">
+        <v>8</v>
+      </c>
+      <c r="B47" s="31" t="s">
+        <v>104</v>
+      </c>
+      <c r="C47" s="63" t="s">
+        <v>69</v>
+      </c>
+      <c r="D47" s="21" t="s">
+        <v>72</v>
+      </c>
+      <c r="E47" s="32" t="s">
+        <v>69</v>
+      </c>
+      <c r="F47" s="32" t="s">
+        <v>69</v>
+      </c>
+      <c r="G47" s="32" t="s">
+        <v>69</v>
+      </c>
+      <c r="H47" s="46" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A48" s="47">
+        <v>8</v>
+      </c>
+      <c r="B48" s="48" t="s">
+        <v>80</v>
+      </c>
+      <c r="C48" s="64" t="s">
+        <v>58</v>
+      </c>
+      <c r="D48" s="49" t="s">
+        <v>72</v>
+      </c>
+      <c r="E48" s="48" t="s">
+        <v>55</v>
+      </c>
+      <c r="F48" s="48" t="s">
+        <v>55</v>
+      </c>
+      <c r="G48" s="48" t="s">
+        <v>67</v>
+      </c>
+      <c r="H48" s="62" t="s">
+        <v>55</v>
       </c>
     </row>
   </sheetData>

--- a/data/PointsScored_Survivor_49.xlsx
+++ b/data/PointsScored_Survivor_49.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\IsaacSchultz\Documents\Survivor_Python\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D88F3EB7-19D5-48BF-8975-7E9C61ED267F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06D9A196-E88A-41B4-A4AC-D7CF7C4FA8DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{A549BF43-C147-4A07-BF22-B3F340E87A7B}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{A549BF43-C147-4A07-BF22-B3F340E87A7B}"/>
   </bookViews>
   <sheets>
     <sheet name="PointsScored_Survivor" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="Weekly_Questions" sheetId="5" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">PointsScored_Survivor!$A$1:$AA$105</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">PointsScored_Survivor!$A$1:$AS$132</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Weekly_Questions!$A$1:$H$6</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="485" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="574" uniqueCount="116">
   <si>
     <t>Player</t>
   </si>
@@ -354,6 +354,39 @@
   </si>
   <si>
     <t>Will anyone cry like a big old baby?</t>
+  </si>
+  <si>
+    <t>Obama</t>
+  </si>
+  <si>
+    <t>Who will say the episode title: "If you're loyal to all you're loyal to none"?</t>
+  </si>
+  <si>
+    <t>Will there be a separate reward challenge?</t>
+  </si>
+  <si>
+    <t>Will anyone play an idol at tribal?</t>
+  </si>
+  <si>
+    <t>Will anyone use one of their special advantages (steal a vote, knowledge is power, extra vote etc.)?</t>
+  </si>
+  <si>
+    <t>Will anyone on Picasso be eliminated?</t>
+  </si>
+  <si>
+    <t>Which photo should Polron choose for their Xmas cards?</t>
+  </si>
+  <si>
+    <t>Mountain in background</t>
+  </si>
+  <si>
+    <t>On top of a mountain</t>
+  </si>
+  <si>
+    <t>Sohpie S</t>
+  </si>
+  <si>
+    <t>Steven, Savannah</t>
   </si>
 </sst>
 </file>
@@ -508,7 +541,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="14">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -703,11 +736,56 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="68">
+  <cellXfs count="79">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -719,31 +797,30 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="12" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -754,12 +831,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -771,16 +848,15 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -791,27 +867,48 @@
     <xf numFmtId="0" fontId="11" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1027,57 +1124,58 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AS115"/>
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:AS132"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="AG101" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C125" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AG112" sqref="AG112"/>
+      <selection pane="bottomRight" activeCell="C142" sqref="C142"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.54296875" customWidth="1"/>
-    <col min="2" max="2" width="8.453125" customWidth="1"/>
-    <col min="3" max="3" width="54.7265625" customWidth="1"/>
-    <col min="4" max="4" width="31.453125" customWidth="1"/>
-    <col min="5" max="5" width="26.1796875" customWidth="1"/>
-    <col min="6" max="6" width="17.54296875" customWidth="1"/>
-    <col min="7" max="7" width="20.7265625" customWidth="1"/>
-    <col min="8" max="8" width="17.1796875" customWidth="1"/>
-    <col min="9" max="9" width="33.26953125" customWidth="1"/>
-    <col min="10" max="10" width="16.1796875" customWidth="1"/>
-    <col min="11" max="11" width="34.1796875" customWidth="1"/>
-    <col min="12" max="12" width="39.81640625" customWidth="1"/>
-    <col min="13" max="13" width="39.54296875" customWidth="1"/>
-    <col min="14" max="14" width="39.1796875" customWidth="1"/>
-    <col min="15" max="15" width="40.453125" customWidth="1"/>
-    <col min="16" max="16" width="41.26953125" customWidth="1"/>
-    <col min="17" max="17" width="63.1796875" customWidth="1"/>
-    <col min="18" max="18" width="64.1796875" customWidth="1"/>
-    <col min="19" max="19" width="52.7265625" customWidth="1"/>
-    <col min="20" max="20" width="30.26953125" customWidth="1"/>
-    <col min="21" max="21" width="20.7265625" customWidth="1"/>
-    <col min="22" max="22" width="35.1796875" customWidth="1"/>
+    <col min="1" max="1" width="10.5703125" customWidth="1"/>
+    <col min="2" max="2" width="8.42578125" customWidth="1"/>
+    <col min="3" max="3" width="54.7109375" customWidth="1"/>
+    <col min="4" max="4" width="31.42578125" customWidth="1"/>
+    <col min="5" max="5" width="26.140625" customWidth="1"/>
+    <col min="6" max="6" width="17.5703125" customWidth="1"/>
+    <col min="7" max="7" width="20.7109375" customWidth="1"/>
+    <col min="8" max="8" width="17.140625" customWidth="1"/>
+    <col min="9" max="9" width="33.28515625" customWidth="1"/>
+    <col min="10" max="10" width="16.140625" customWidth="1"/>
+    <col min="11" max="11" width="34.140625" customWidth="1"/>
+    <col min="12" max="12" width="39.85546875" customWidth="1"/>
+    <col min="13" max="13" width="39.5703125" customWidth="1"/>
+    <col min="14" max="14" width="39.140625" customWidth="1"/>
+    <col min="15" max="15" width="40.42578125" customWidth="1"/>
+    <col min="16" max="16" width="41.28515625" customWidth="1"/>
+    <col min="17" max="17" width="63.140625" customWidth="1"/>
+    <col min="18" max="18" width="64.140625" customWidth="1"/>
+    <col min="19" max="19" width="52.7109375" customWidth="1"/>
+    <col min="20" max="20" width="30.28515625" customWidth="1"/>
+    <col min="21" max="21" width="20.7109375" customWidth="1"/>
+    <col min="22" max="22" width="35.140625" customWidth="1"/>
     <col min="23" max="23" width="34" customWidth="1"/>
     <col min="24" max="24" width="25" customWidth="1"/>
-    <col min="25" max="25" width="34.81640625" customWidth="1"/>
-    <col min="26" max="26" width="37.26953125" customWidth="1"/>
-    <col min="27" max="27" width="17.81640625" customWidth="1"/>
-    <col min="29" max="29" width="15.1796875" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="30.54296875" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="32.81640625" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="23.81640625" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="40.453125" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="43.7265625" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="16.7265625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="34.85546875" customWidth="1"/>
+    <col min="26" max="26" width="37.28515625" customWidth="1"/>
+    <col min="27" max="27" width="17.85546875" customWidth="1"/>
+    <col min="29" max="29" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="30.5703125" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="32.85546875" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="23.85546875" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="40.42578125" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="43.7109375" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="16.7109375" bestFit="1" customWidth="1"/>
     <col min="36" max="36" width="11" customWidth="1"/>
-    <col min="37" max="37" width="11.7265625" customWidth="1"/>
-    <col min="38" max="45" width="11.26953125" customWidth="1"/>
+    <col min="37" max="37" width="11.7109375" customWidth="1"/>
+    <col min="38" max="45" width="11.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:45" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1090,7 +1188,7 @@
       <c r="D1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="E1" s="6" t="s">
         <v>71</v>
       </c>
       <c r="F1" s="1" t="s">
@@ -1214,287 +1312,287 @@
         <v>49</v>
       </c>
     </row>
-    <row r="2" spans="1:45" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>51</v>
       </c>
-      <c r="B2" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:45" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="B2" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>52</v>
       </c>
-      <c r="B3" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:45" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="B3" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>53</v>
       </c>
-      <c r="B4" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:45" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="B4" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>54</v>
       </c>
-      <c r="B5" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:45" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="B5" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>55</v>
       </c>
-      <c r="B6" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:45" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="B6" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>56</v>
       </c>
-      <c r="B7" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:45" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A8" s="6" t="s">
+      <c r="B7" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:45" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="B8" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:45" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="B8" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>57</v>
       </c>
-      <c r="B9" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:45" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="B9" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>58</v>
       </c>
-      <c r="B10" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:45" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="B10" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>59</v>
       </c>
-      <c r="B11" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:45" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="B11" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>60</v>
       </c>
-      <c r="B12" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:45" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="B12" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>61</v>
       </c>
-      <c r="B13" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:45" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="B13" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>62</v>
       </c>
-      <c r="B14" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:45" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="B14" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>63</v>
       </c>
-      <c r="B15" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B15" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:45" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>64</v>
       </c>
-      <c r="B16" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B16" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>65</v>
       </c>
-      <c r="B17" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B17" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>66</v>
       </c>
-      <c r="B18" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B18" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>67</v>
       </c>
-      <c r="B19" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B19" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>51</v>
       </c>
-      <c r="B20" s="6">
+      <c r="B20" s="5">
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:2" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>52</v>
       </c>
-      <c r="B21" s="6">
+      <c r="B21" s="5">
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:2" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>53</v>
       </c>
-      <c r="B22" s="6">
+      <c r="B22" s="5">
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:2" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>54</v>
       </c>
-      <c r="B23" s="6">
+      <c r="B23" s="5">
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:2" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>55</v>
       </c>
-      <c r="B24" s="6">
+      <c r="B24" s="5">
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:2" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>56</v>
       </c>
-      <c r="B25" s="6">
+      <c r="B25" s="5">
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="6" t="s">
+    <row r="26" spans="1:2" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="B26" s="6">
+      <c r="B26" s="5">
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:2" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>57</v>
       </c>
-      <c r="B27" s="6">
+      <c r="B27" s="5">
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:2" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>58</v>
       </c>
-      <c r="B28" s="6">
+      <c r="B28" s="5">
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:2" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>59</v>
       </c>
-      <c r="B29" s="6">
+      <c r="B29" s="5">
         <v>2</v>
       </c>
     </row>
-    <row r="30" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:2" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>61</v>
       </c>
-      <c r="B30" s="6">
+      <c r="B30" s="5">
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:2" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>62</v>
       </c>
-      <c r="B31" s="6">
+      <c r="B31" s="5">
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:2" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>63</v>
       </c>
-      <c r="B32" s="6">
+      <c r="B32" s="5">
         <v>2</v>
       </c>
     </row>
-    <row r="33" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:32" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>64</v>
       </c>
-      <c r="B33" s="6">
+      <c r="B33" s="5">
         <v>2</v>
       </c>
     </row>
-    <row r="34" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:32" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>65</v>
       </c>
-      <c r="B34" s="6">
+      <c r="B34" s="5">
         <v>2</v>
       </c>
     </row>
-    <row r="35" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:32" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>66</v>
       </c>
-      <c r="B35" s="6">
+      <c r="B35" s="5">
         <v>2</v>
       </c>
     </row>
-    <row r="36" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:32" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>67</v>
       </c>
-      <c r="B36" s="6">
+      <c r="B36" s="5">
         <v>2</v>
       </c>
     </row>
-    <row r="37" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:32" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>51</v>
       </c>
@@ -1505,7 +1603,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:32" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>53</v>
       </c>
@@ -1518,7 +1616,7 @@
       </c>
       <c r="AA38" s="1"/>
     </row>
-    <row r="39" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:32" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>54</v>
       </c>
@@ -1526,7 +1624,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="40" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:32" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>55</v>
       </c>
@@ -1534,7 +1632,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="41" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:32" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>56</v>
       </c>
@@ -1542,8 +1640,8 @@
         <v>3</v>
       </c>
     </row>
-    <row r="42" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A42" s="6" t="s">
+    <row r="42" spans="1:32" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="5" t="s">
         <v>70</v>
       </c>
       <c r="B42" s="1">
@@ -1551,7 +1649,7 @@
       </c>
       <c r="Z42" s="1"/>
     </row>
-    <row r="43" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:32" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>57</v>
       </c>
@@ -1559,7 +1657,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="44" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:32" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>58</v>
       </c>
@@ -1568,7 +1666,7 @@
       </c>
       <c r="Z44" s="1"/>
     </row>
-    <row r="45" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:32" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>59</v>
       </c>
@@ -1579,7 +1677,7 @@
       <c r="Z45" s="1"/>
       <c r="AA45" s="1"/>
     </row>
-    <row r="46" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:32" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>61</v>
       </c>
@@ -1587,7 +1685,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="47" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:32" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>62</v>
       </c>
@@ -1596,7 +1694,7 @@
       </c>
       <c r="Y47" s="1"/>
     </row>
-    <row r="48" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:32" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>63</v>
       </c>
@@ -1604,7 +1702,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="49" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:26" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>64</v>
       </c>
@@ -1612,7 +1710,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="50" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:26" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>65</v>
       </c>
@@ -1622,7 +1720,7 @@
       <c r="Y50" s="1"/>
       <c r="Z50" s="1"/>
     </row>
-    <row r="51" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:26" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>66</v>
       </c>
@@ -1632,7 +1730,7 @@
       <c r="Y51" s="1"/>
       <c r="Z51" s="1"/>
     </row>
-    <row r="52" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:26" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>67</v>
       </c>
@@ -1642,7 +1740,7 @@
       <c r="Y52" s="1"/>
       <c r="Z52" s="1"/>
     </row>
-    <row r="53" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:26" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>51</v>
       </c>
@@ -1653,7 +1751,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:26" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>53</v>
       </c>
@@ -1661,7 +1759,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="55" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:26" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>54</v>
       </c>
@@ -1669,7 +1767,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="56" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>55</v>
       </c>
@@ -1677,8 +1775,8 @@
         <v>4</v>
       </c>
     </row>
-    <row r="57" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A57" s="6" t="s">
+    <row r="57" spans="1:26" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="5" t="s">
         <v>70</v>
       </c>
       <c r="B57" s="1">
@@ -1688,7 +1786,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:26" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>57</v>
       </c>
@@ -1696,7 +1794,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="59" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:26" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>58</v>
       </c>
@@ -1707,7 +1805,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:26" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>59</v>
       </c>
@@ -1715,7 +1813,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="61" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:26" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>61</v>
       </c>
@@ -1726,7 +1824,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:26" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>62</v>
       </c>
@@ -1737,7 +1835,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:26" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>63</v>
       </c>
@@ -1745,7 +1843,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="64" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:26" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>64</v>
       </c>
@@ -1756,7 +1854,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:27" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>65</v>
       </c>
@@ -1764,7 +1862,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="66" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:27" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>66</v>
       </c>
@@ -1775,7 +1873,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:27" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>67</v>
       </c>
@@ -1786,7 +1884,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:27" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>51</v>
       </c>
@@ -1797,7 +1895,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:27" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>53</v>
       </c>
@@ -1805,7 +1903,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="70" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:27" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>54</v>
       </c>
@@ -1813,7 +1911,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="71" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:27" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>55</v>
       </c>
@@ -1821,19 +1919,19 @@
         <v>5</v>
       </c>
     </row>
-    <row r="72" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A72" s="6" t="s">
+    <row r="72" spans="1:27" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="5" t="s">
         <v>70</v>
       </c>
       <c r="B72" s="1">
         <v>5</v>
       </c>
-      <c r="Y72" s="12"/>
+      <c r="Y72" s="11"/>
       <c r="Z72">
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:27" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>58</v>
       </c>
@@ -1847,7 +1945,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:27" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>59</v>
       </c>
@@ -1858,7 +1956,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:27" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>61</v>
       </c>
@@ -1866,7 +1964,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="76" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:27" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>62</v>
       </c>
@@ -1877,7 +1975,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:27" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>63</v>
       </c>
@@ -1885,7 +1983,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="78" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:27" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>64</v>
       </c>
@@ -1896,7 +1994,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:27" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>65</v>
       </c>
@@ -1904,7 +2002,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="80" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:27" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>66</v>
       </c>
@@ -1915,7 +2013,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:26" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>67</v>
       </c>
@@ -1926,7 +2024,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:26" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>51</v>
       </c>
@@ -1934,7 +2032,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="83" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:26" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>53</v>
       </c>
@@ -1942,7 +2040,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="84" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:26" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>55</v>
       </c>
@@ -1950,15 +2048,15 @@
         <v>6</v>
       </c>
     </row>
-    <row r="85" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A85" s="6" t="s">
+    <row r="85" spans="1:26" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A85" s="5" t="s">
         <v>70</v>
       </c>
       <c r="B85" s="1">
         <v>6</v>
       </c>
     </row>
-    <row r="86" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:26" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>58</v>
       </c>
@@ -1972,7 +2070,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:26" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>59</v>
       </c>
@@ -1980,7 +2078,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="88" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:26" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>61</v>
       </c>
@@ -1994,7 +2092,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:26" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>62</v>
       </c>
@@ -2002,7 +2100,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="90" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:26" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>63</v>
       </c>
@@ -2016,7 +2114,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:26" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>64</v>
       </c>
@@ -2024,7 +2122,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="92" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:26" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>65</v>
       </c>
@@ -2041,7 +2139,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="93" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:26" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>66</v>
       </c>
@@ -2049,7 +2147,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="94" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:26" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>67</v>
       </c>
@@ -2057,7 +2155,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="95" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:26" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>51</v>
       </c>
@@ -2068,7 +2166,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="96" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:26" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>55</v>
       </c>
@@ -2079,19 +2177,19 @@
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="1:45" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A97" s="6" t="s">
+    <row r="97" spans="1:45" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A97" s="5" t="s">
         <v>70</v>
       </c>
       <c r="B97" s="1">
         <v>7</v>
       </c>
-      <c r="C97" s="6"/>
+      <c r="C97" s="5"/>
       <c r="X97">
         <v>1</v>
       </c>
     </row>
-    <row r="98" spans="1:45" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:45" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>58</v>
       </c>
@@ -2108,7 +2206,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="99" spans="1:45" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:45" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>59</v>
       </c>
@@ -2122,7 +2220,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="100" spans="1:45" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:45" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>61</v>
       </c>
@@ -2136,7 +2234,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="101" spans="1:45" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:45" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>62</v>
       </c>
@@ -2150,7 +2248,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="102" spans="1:45" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:45" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>63</v>
       </c>
@@ -2161,7 +2259,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="103" spans="1:45" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:45" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>65</v>
       </c>
@@ -2175,7 +2273,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="104" spans="1:45" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:45" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>66</v>
       </c>
@@ -2192,7 +2290,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="105" spans="1:45" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:45" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>67</v>
       </c>
@@ -2206,7 +2304,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="106" spans="1:45" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:45" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>51</v>
       </c>
@@ -2217,7 +2315,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="107" spans="1:45" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:45" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>55</v>
       </c>
@@ -2225,8 +2323,8 @@
         <v>8</v>
       </c>
     </row>
-    <row r="108" spans="1:45" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A108" s="6" t="s">
+    <row r="108" spans="1:45" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A108" s="5" t="s">
         <v>70</v>
       </c>
       <c r="B108" s="1">
@@ -2239,8 +2337,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="109" spans="1:45" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A109" s="67" t="s">
+    <row r="109" spans="1:45" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A109" s="64" t="s">
         <v>58</v>
       </c>
       <c r="B109" s="1">
@@ -2250,7 +2348,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="110" spans="1:45" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:45" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>61</v>
       </c>
@@ -2258,7 +2356,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="111" spans="1:45" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:45" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>62</v>
       </c>
@@ -2266,7 +2364,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="112" spans="1:45" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:45" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>63</v>
       </c>
@@ -2280,7 +2378,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="113" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:44" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>65</v>
       </c>
@@ -2291,7 +2389,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="114" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:44" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>66</v>
       </c>
@@ -2299,7 +2397,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="115" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:44" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>67</v>
       </c>
@@ -2310,7 +2408,195 @@
         <v>1</v>
       </c>
     </row>
+    <row r="116" spans="1:44" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
+        <v>51</v>
+      </c>
+      <c r="B116" s="1">
+        <v>9</v>
+      </c>
+      <c r="Y116">
+        <v>1</v>
+      </c>
+      <c r="AR116">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117" spans="1:44" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
+        <v>55</v>
+      </c>
+      <c r="B117" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="118" spans="1:44" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A118" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="B118" s="1">
+        <v>9</v>
+      </c>
+      <c r="Y118">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="119" spans="1:44" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
+        <v>61</v>
+      </c>
+      <c r="B119" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="120" spans="1:44" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
+        <v>62</v>
+      </c>
+      <c r="B120" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="121" spans="1:44" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
+        <v>63</v>
+      </c>
+      <c r="B121" s="1">
+        <v>9</v>
+      </c>
+      <c r="P121">
+        <v>1</v>
+      </c>
+      <c r="Y121">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="122" spans="1:44" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
+        <v>65</v>
+      </c>
+      <c r="B122" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="123" spans="1:44" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A123" t="s">
+        <v>66</v>
+      </c>
+      <c r="B123" s="1">
+        <v>9</v>
+      </c>
+      <c r="Y123">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="124" spans="1:44" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A124" t="s">
+        <v>67</v>
+      </c>
+      <c r="B124" s="1">
+        <v>9</v>
+      </c>
+      <c r="P124">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="125" spans="1:44" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A125" t="s">
+        <v>55</v>
+      </c>
+      <c r="B125" s="1">
+        <v>10</v>
+      </c>
+      <c r="AQ125">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="126" spans="1:44" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A126" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="B126" s="1">
+        <v>10</v>
+      </c>
+      <c r="AF126">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="127" spans="1:44" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A127" t="s">
+        <v>61</v>
+      </c>
+      <c r="B127" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="128" spans="1:44" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A128" t="s">
+        <v>62</v>
+      </c>
+      <c r="B128" s="1">
+        <v>10</v>
+      </c>
+      <c r="Y128">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="129" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A129" t="s">
+        <v>63</v>
+      </c>
+      <c r="B129" s="1">
+        <v>10</v>
+      </c>
+      <c r="AG129">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="130" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A130" t="s">
+        <v>65</v>
+      </c>
+      <c r="B130" s="1">
+        <v>10</v>
+      </c>
+      <c r="Y130">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="131" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A131" t="s">
+        <v>66</v>
+      </c>
+      <c r="B131" s="1">
+        <v>10</v>
+      </c>
+      <c r="P131">
+        <v>1</v>
+      </c>
+      <c r="Y131">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="132" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A132" t="s">
+        <v>67</v>
+      </c>
+      <c r="B132" s="1">
+        <v>10</v>
+      </c>
+      <c r="Y132">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
+  <autoFilter ref="A1:AS132" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <filterColumn colId="1">
+      <filters>
+        <filter val="10"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
 </worksheet>
@@ -2320,16 +2606,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:E990"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="R27" sqref="R26:R27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N12" sqref="N12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="22" width="8.7265625" customWidth="1"/>
+    <col min="1" max="22" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
@@ -2346,7 +2632,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -2363,7 +2649,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -2380,7 +2666,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -2397,25 +2683,25 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A5" s="8">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="7">
         <v>4</v>
       </c>
-      <c r="B5" s="8">
+      <c r="B5" s="7">
         <v>5</v>
       </c>
-      <c r="C5" s="8">
-        <v>1</v>
-      </c>
-      <c r="D5" s="8">
+      <c r="C5" s="7">
+        <v>1</v>
+      </c>
+      <c r="D5" s="7">
         <v>4</v>
       </c>
-      <c r="E5" s="8">
+      <c r="E5" s="7">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A6" s="9">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="8">
         <v>5</v>
       </c>
       <c r="B6">
@@ -2431,8 +2717,8 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A7" s="9">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="8">
         <v>6</v>
       </c>
       <c r="B7">
@@ -2448,8 +2734,8 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A8" s="9">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="8">
         <v>7</v>
       </c>
       <c r="B8">
@@ -2465,8 +2751,8 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A9" s="66">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="63">
         <v>8</v>
       </c>
       <c r="B9">
@@ -2482,1005 +2768,1025 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="4"/>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-    </row>
-    <row r="11" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="4"/>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-    </row>
-    <row r="12" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="5"/>
+    <row r="10" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="70">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>6</v>
+      </c>
+      <c r="C10">
+        <v>5</v>
+      </c>
+      <c r="D10">
+        <v>2</v>
+      </c>
+      <c r="E10">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="70">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="4"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
     </row>
-    <row r="13" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="14" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="15" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="16" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="17" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="18" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="21" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="22" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="25" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="27" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="28" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="29" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="31" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="32" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="33" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="34" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="35" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="36" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="37" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="38" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="39" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="40" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="41" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="42" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="43" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="44" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="45" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="46" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="47" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="48" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="49" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="50" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="51" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="52" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="53" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="54" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="55" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="56" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="57" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="58" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="59" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="60" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="61" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="62" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="63" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="64" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="65" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="66" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="67" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="68" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="69" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="70" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="71" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="72" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="73" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="74" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="75" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="76" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="77" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="78" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="79" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="80" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="81" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="82" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="83" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="84" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="85" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="86" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="87" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="88" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="89" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="90" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="91" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="92" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="93" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="94" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="95" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="96" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="97" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="98" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="99" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="100" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="101" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="102" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="103" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="104" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="105" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="106" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="107" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="108" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="109" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="110" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="111" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="112" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="113" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="114" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="115" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="116" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="117" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="118" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="119" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="120" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="121" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="122" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="123" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="124" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="125" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="126" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="127" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="128" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="129" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="130" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="131" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="132" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="133" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="134" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="135" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="136" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="137" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="138" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="139" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="140" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="141" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="142" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="143" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="144" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="145" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="146" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="147" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="148" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="149" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="150" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="151" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="152" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="153" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="154" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="155" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="156" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="157" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="158" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="159" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="160" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="161" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="162" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="163" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="164" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="165" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="166" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="167" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="168" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="169" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="170" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="171" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="172" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="173" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="174" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="175" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="176" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="177" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="178" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="179" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="180" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="181" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="182" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="183" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="184" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="185" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="186" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="187" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="188" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="189" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="190" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="191" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="192" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="193" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="194" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="195" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="196" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="197" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="198" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="199" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="200" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="201" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="202" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="203" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="204" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="205" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="206" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="207" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="208" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="209" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="210" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="211" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="212" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="213" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="214" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="215" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="216" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="217" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="218" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="219" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="220" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="221" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="222" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="223" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="224" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="225" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="226" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="227" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="228" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="229" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="230" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="231" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="232" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="233" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="234" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="235" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="236" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="237" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="238" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="239" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="240" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="241" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="242" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="243" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="244" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="245" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="246" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="247" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="248" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="249" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="250" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="251" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="252" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="253" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="254" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="255" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="256" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="257" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="258" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="259" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="260" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="261" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="262" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="263" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="264" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="265" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="266" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="267" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="268" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="269" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="270" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="271" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="272" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="273" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="274" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="275" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="276" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="277" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="278" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="279" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="280" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="281" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="282" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="283" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="284" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="285" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="286" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="287" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="288" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="289" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="290" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="291" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="292" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="293" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="294" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="295" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="296" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="297" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="298" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="299" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="300" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="301" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="302" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="303" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="304" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="305" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="306" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="307" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="308" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="309" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="310" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="311" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="312" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="313" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="314" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="315" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="316" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="317" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="318" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="319" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="320" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="321" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="322" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="323" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="324" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="325" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="326" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="327" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="328" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="329" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="330" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="331" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="332" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="333" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="334" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="335" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="336" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="337" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="338" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="339" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="340" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="341" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="342" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="343" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="344" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="345" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="346" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="347" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="348" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="349" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="350" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="351" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="352" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="353" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="354" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="355" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="356" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="357" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="358" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="359" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="360" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="361" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="362" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="363" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="364" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="365" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="366" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="367" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="368" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="369" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="370" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="371" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="372" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="373" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="374" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="375" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="376" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="377" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="378" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="379" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="380" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="381" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="382" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="383" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="384" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="385" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="386" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="387" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="388" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="389" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="390" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="391" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="392" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="393" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="394" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="395" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="396" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="397" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="398" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="399" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="400" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="401" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="402" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="403" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="404" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="405" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="406" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="407" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="408" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="409" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="410" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="411" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="412" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="413" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="414" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="415" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="416" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="417" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="418" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="419" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="420" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="421" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="422" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="423" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="424" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="425" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="426" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="427" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="428" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="429" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="430" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="431" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="432" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="433" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="434" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="435" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="436" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="437" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="438" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="439" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="440" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="441" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="442" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="443" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="444" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="445" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="446" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="447" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="448" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="449" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="450" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="451" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="452" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="453" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="454" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="455" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="456" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="457" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="458" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="459" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="460" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="461" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="462" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="463" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="464" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="465" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="466" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="467" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="468" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="469" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="470" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="471" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="472" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="473" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="474" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="475" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="476" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="477" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="478" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="479" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="480" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="481" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="482" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="483" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="484" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="485" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="486" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="487" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="488" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="489" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="490" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="491" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="492" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="493" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="494" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="495" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="496" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="840" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="841" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="842" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="843" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="844" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="845" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="846" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="847" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="848" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="849" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="850" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="853" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="854" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="855" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="856" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="857" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="858" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="859" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="862" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="863" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="865" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="866" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="867" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="868" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="869" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="870" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="871" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="872" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="873" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="874" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="875" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="876" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="877" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="878" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="879" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="884" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="888" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="889" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="890" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="891" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="892" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="893" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="894" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="924" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="925" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="926" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="927" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="928" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="929" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="930" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="931" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="932" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="933" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="934" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="935" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="936" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="937" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="938" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="939" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="940" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="941" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="942" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="943" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="944" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="945" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="946" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="947" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="948" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="949" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="950" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="951" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="952" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="953" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="954" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="955" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="956" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="957" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="958" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="959" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="960" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="961" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="962" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="963" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="964" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="965" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="966" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="967" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="968" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="969" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="970" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="971" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="972" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="973" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="974" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="975" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="976" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="977" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="978" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="979" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="980" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="981" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="982" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="983" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="984" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="985" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="986" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="987" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="988" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="989" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="990" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="13" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="14" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="15" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="16" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="34" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="37" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="38" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="39" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="40" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="41" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="42" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="43" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="44" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="47" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="52" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="53" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="54" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="55" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="56" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="57" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="60" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="61" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="63" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="64" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="65" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="66" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="67" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="68" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="69" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="70" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="71" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="72" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="73" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="74" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="75" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="76" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="77" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="78" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="79" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="80" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="81" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="82" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="83" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="84" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="85" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="86" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="87" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="88" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="89" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="90" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="91" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="92" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="93" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="94" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="95" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="96" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="97" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="98" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="99" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="100" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="101" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="102" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="103" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="104" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="105" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="106" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="107" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="108" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="109" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="110" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="111" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="112" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="113" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="114" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="115" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="116" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="117" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="118" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="119" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="120" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="121" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="122" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="123" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="124" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="125" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="126" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="127" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="128" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="129" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="130" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="131" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="132" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="133" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="134" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="135" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="136" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="137" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="138" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="139" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="140" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="141" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="142" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="143" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="144" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="145" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="146" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="147" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="148" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="149" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="150" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="151" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="152" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="153" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="154" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="155" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="156" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="157" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="158" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="159" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="160" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="161" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="162" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="163" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="164" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="165" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="166" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="167" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="168" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="169" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="170" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="171" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="172" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="173" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="174" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="175" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="176" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="177" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="178" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="179" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="180" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="181" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="182" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="183" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="184" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="185" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="186" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="187" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="188" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="189" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="190" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="191" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="192" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="193" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="194" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="195" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="196" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="197" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="198" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="199" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="200" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="201" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="202" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="203" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="204" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="205" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="206" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="207" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="208" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="209" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="210" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="211" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="212" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="213" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="214" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="215" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="216" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="217" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="218" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="219" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="220" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="221" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="222" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="223" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="224" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="225" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="226" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="227" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="228" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="229" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="230" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="231" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="232" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="233" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="234" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="235" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="236" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="237" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="238" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="239" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="240" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="241" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="242" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="243" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="244" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="245" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="246" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="247" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="248" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="249" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="250" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="251" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="252" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="253" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="254" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="255" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="256" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="257" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="258" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="259" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="260" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="261" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="262" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="263" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="264" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="265" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="266" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="267" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="268" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="269" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="270" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="271" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="272" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="273" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="274" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="275" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="276" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="277" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="278" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="279" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="280" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="281" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="282" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="283" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="284" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="285" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="286" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="287" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="288" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="289" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="290" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="291" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="292" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="293" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="294" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="295" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="296" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="297" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="298" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="299" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="300" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="301" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="302" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="303" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="304" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="305" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="306" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="307" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="308" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="309" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="310" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="311" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="312" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="313" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="314" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="315" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="316" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="317" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="318" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="319" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="320" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="321" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="322" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="323" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="324" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="325" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="326" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="327" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="328" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="329" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="330" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="331" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="332" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="333" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="334" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="335" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="336" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="337" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="338" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="339" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="340" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="341" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="342" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="343" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="344" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="345" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="346" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="347" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="348" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="349" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="350" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="351" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="352" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="353" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="354" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="355" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="356" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="357" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="358" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="359" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="360" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="361" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="362" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="363" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="364" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="365" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="366" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="367" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="368" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="369" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="370" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="371" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="372" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="373" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="374" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="375" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="376" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="377" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="378" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="379" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="380" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="381" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="382" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="383" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="384" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="385" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="386" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="387" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="388" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="389" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="390" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="391" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="392" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="393" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="394" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="395" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="396" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="397" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="398" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="399" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="400" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="401" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="402" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="403" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="404" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="405" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="406" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="407" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="408" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="409" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="410" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="411" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="412" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="413" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="414" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="415" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="416" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="417" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="418" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="419" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="420" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="421" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="422" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="423" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="424" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="425" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="426" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="427" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="428" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="429" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="430" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="431" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="432" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="433" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="434" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="435" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="436" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="437" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="438" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="439" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="440" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="441" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="442" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="443" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="444" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="445" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="446" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="447" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="448" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="449" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="450" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="451" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="452" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="453" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="454" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="455" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="456" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="457" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="458" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="459" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="460" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="461" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="462" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="463" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="464" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="465" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="466" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="467" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="468" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="469" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="470" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="471" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="472" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="473" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="474" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="475" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="476" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="477" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="478" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="479" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="480" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="481" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="482" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="483" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="484" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="485" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="486" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="487" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="488" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="489" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="490" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="491" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="492" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="493" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="494" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="495" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="496" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="840" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="841" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="842" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="843" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="844" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="845" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="846" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="847" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="848" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="849" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="850" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="853" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="854" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="855" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="856" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="857" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="858" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="859" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="862" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="863" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="865" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="866" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="867" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="868" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="869" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="870" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="871" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="872" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="873" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="874" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="875" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="876" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="877" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="878" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="879" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="884" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="888" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="889" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="890" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="891" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="892" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="893" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="894" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="924" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="925" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="926" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="927" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="928" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="929" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="930" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="931" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="932" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="933" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="934" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="935" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="936" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="937" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="938" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="939" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="940" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="941" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="942" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="943" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="944" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="945" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="946" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="947" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="948" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="949" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="950" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="951" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="952" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="953" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="954" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="955" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="956" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="957" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="958" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="959" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="960" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="961" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="962" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="963" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="964" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="965" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="966" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="967" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="968" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="969" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="970" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="971" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="972" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="973" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="974" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="975" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="976" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="977" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="978" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="979" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="980" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="981" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="982" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="983" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="984" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="985" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="986" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="987" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="988" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="989" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="990" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
@@ -3489,1241 +3795,1518 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3ABC1FEC-B626-46F0-AE97-C498D904E4E1}">
-  <dimension ref="A1:H48"/>
+  <dimension ref="A1:H59"/>
   <sheetViews>
-    <sheetView topLeftCell="A33" workbookViewId="0">
-      <selection activeCell="P7" sqref="P7"/>
+    <sheetView topLeftCell="A41" workbookViewId="0">
+      <selection activeCell="E60" sqref="E60:H60"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="48.453125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.7265625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.26953125" customWidth="1"/>
-    <col min="5" max="5" width="10.7265625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.81640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="19.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="48.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.28515625" customWidth="1"/>
+    <col min="5" max="5" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.85546875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A1" s="33" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="34" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="32" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="33" t="s">
         <v>34</v>
       </c>
-      <c r="C1" s="34" t="s">
+      <c r="C1" s="33" t="s">
         <v>39</v>
       </c>
-      <c r="D1" s="34" t="s">
+      <c r="D1" s="33" t="s">
         <v>40</v>
       </c>
-      <c r="E1" s="34" t="s">
+      <c r="E1" s="33" t="s">
         <v>35</v>
       </c>
-      <c r="F1" s="34" t="s">
+      <c r="F1" s="33" t="s">
         <v>36</v>
       </c>
-      <c r="G1" s="34" t="s">
+      <c r="G1" s="33" t="s">
         <v>37</v>
       </c>
-      <c r="H1" s="35" t="s">
+      <c r="H1" s="34" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A2" s="36">
-        <v>1</v>
-      </c>
-      <c r="B2" s="14" t="s">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="35">
+        <v>1</v>
+      </c>
+      <c r="B2" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="C2" s="13"/>
-      <c r="D2" s="15" t="s">
-        <v>69</v>
-      </c>
-      <c r="E2" s="13"/>
-      <c r="F2" s="13"/>
-      <c r="G2" s="13"/>
-      <c r="H2" s="37"/>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A3" s="38">
+      <c r="C2" s="12"/>
+      <c r="D2" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="E2" s="12"/>
+      <c r="F2" s="12"/>
+      <c r="G2" s="12"/>
+      <c r="H2" s="36"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="37">
         <v>2</v>
       </c>
-      <c r="B3" s="14" t="s">
+      <c r="B3" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="C3" s="13"/>
-      <c r="D3" s="15" t="s">
-        <v>69</v>
-      </c>
-      <c r="E3" s="13"/>
-      <c r="F3" s="13"/>
-      <c r="G3" s="13"/>
-      <c r="H3" s="37"/>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A4" s="38">
+      <c r="C3" s="12"/>
+      <c r="D3" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="E3" s="12"/>
+      <c r="F3" s="12"/>
+      <c r="G3" s="12"/>
+      <c r="H3" s="36"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="37">
         <v>3</v>
       </c>
-      <c r="B4" s="14" t="s">
+      <c r="B4" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="C4" s="13"/>
-      <c r="D4" s="15" t="s">
-        <v>69</v>
-      </c>
-      <c r="E4" s="13"/>
-      <c r="F4" s="13"/>
-      <c r="G4" s="13"/>
-      <c r="H4" s="37"/>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A5" s="38">
+      <c r="C4" s="12"/>
+      <c r="D4" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="E4" s="12"/>
+      <c r="F4" s="12"/>
+      <c r="G4" s="12"/>
+      <c r="H4" s="36"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="37">
         <v>4</v>
       </c>
-      <c r="B5" s="16" t="s">
+      <c r="B5" s="15" t="s">
         <v>73</v>
       </c>
-      <c r="C5" s="16" t="s">
+      <c r="C5" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="D5" s="17" t="s">
-        <v>72</v>
-      </c>
-      <c r="E5" s="13" t="s">
+      <c r="D5" s="16" t="s">
+        <v>72</v>
+      </c>
+      <c r="E5" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="F5" s="13" t="s">
+      <c r="F5" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="G5" s="13" t="s">
+      <c r="G5" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="H5" s="37" t="s">
+      <c r="H5" s="36" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A6" s="38">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="37">
         <v>4</v>
       </c>
-      <c r="B6" s="16" t="s">
+      <c r="B6" s="15" t="s">
         <v>74</v>
       </c>
-      <c r="C6" s="16" t="s">
+      <c r="C6" s="15" t="s">
         <v>61</v>
       </c>
-      <c r="D6" s="17" t="s">
-        <v>72</v>
-      </c>
-      <c r="E6" s="13" t="s">
+      <c r="D6" s="16" t="s">
+        <v>72</v>
+      </c>
+      <c r="E6" s="12" t="s">
         <v>70</v>
       </c>
-      <c r="F6" s="13" t="s">
+      <c r="F6" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="G6" s="13" t="s">
+      <c r="G6" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="H6" s="37" t="s">
+      <c r="H6" s="36" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="58" x14ac:dyDescent="0.35">
-      <c r="A7" s="38">
+    <row r="7" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="A7" s="37">
         <v>4</v>
       </c>
-      <c r="B7" s="18" t="s">
+      <c r="B7" s="17" t="s">
         <v>75</v>
       </c>
-      <c r="C7" s="18" t="s">
+      <c r="C7" s="17" t="s">
         <v>81</v>
       </c>
-      <c r="D7" s="17" t="s">
-        <v>72</v>
-      </c>
-      <c r="E7" s="19" t="s">
+      <c r="D7" s="16" t="s">
+        <v>72</v>
+      </c>
+      <c r="E7" s="18" t="s">
         <v>58</v>
       </c>
-      <c r="F7" s="13" t="s">
+      <c r="F7" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="G7" s="19" t="s">
+      <c r="G7" s="18" t="s">
         <v>57</v>
       </c>
-      <c r="H7" s="37" t="s">
+      <c r="H7" s="36" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A8" s="38">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="37">
         <v>4</v>
       </c>
-      <c r="B8" s="13" t="s">
+      <c r="B8" s="12" t="s">
         <v>76</v>
       </c>
-      <c r="C8" s="16" t="s">
+      <c r="C8" s="15" t="s">
         <v>82</v>
       </c>
-      <c r="D8" s="17" t="s">
-        <v>69</v>
-      </c>
-      <c r="E8" s="20" t="s">
+      <c r="D8" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="E8" s="19" t="s">
         <v>51</v>
       </c>
-      <c r="F8" s="20" t="s">
+      <c r="F8" s="19" t="s">
         <v>59</v>
       </c>
-      <c r="G8" s="20" t="s">
+      <c r="G8" s="19" t="s">
         <v>54</v>
       </c>
-      <c r="H8" s="39" t="s">
+      <c r="H8" s="38" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A9" s="38">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="37">
         <v>4</v>
       </c>
-      <c r="B9" s="13" t="s">
+      <c r="B9" s="12" t="s">
         <v>77</v>
       </c>
-      <c r="C9" s="16" t="s">
-        <v>72</v>
-      </c>
-      <c r="D9" s="17" t="s">
-        <v>72</v>
-      </c>
-      <c r="E9" s="19" t="s">
-        <v>72</v>
-      </c>
-      <c r="F9" s="13" t="s">
-        <v>69</v>
-      </c>
-      <c r="G9" s="19" t="s">
-        <v>72</v>
-      </c>
-      <c r="H9" s="40" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A10" s="38">
+      <c r="C9" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="D9" s="16" t="s">
+        <v>72</v>
+      </c>
+      <c r="E9" s="18" t="s">
+        <v>72</v>
+      </c>
+      <c r="F9" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="G9" s="18" t="s">
+        <v>72</v>
+      </c>
+      <c r="H9" s="39" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="37">
         <v>4</v>
       </c>
-      <c r="B10" s="13" t="s">
+      <c r="B10" s="12" t="s">
         <v>78</v>
       </c>
-      <c r="C10" s="16" t="s">
-        <v>72</v>
-      </c>
-      <c r="D10" s="17" t="s">
-        <v>72</v>
-      </c>
-      <c r="E10" s="19" t="s">
-        <v>72</v>
-      </c>
-      <c r="F10" s="13" t="s">
-        <v>69</v>
-      </c>
-      <c r="G10" s="19" t="s">
-        <v>72</v>
-      </c>
-      <c r="H10" s="40" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A11" s="38">
+      <c r="C10" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="D10" s="16" t="s">
+        <v>72</v>
+      </c>
+      <c r="E10" s="18" t="s">
+        <v>72</v>
+      </c>
+      <c r="F10" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="G10" s="18" t="s">
+        <v>72</v>
+      </c>
+      <c r="H10" s="39" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="37">
         <v>4</v>
       </c>
-      <c r="B11" s="16" t="s">
+      <c r="B11" s="15" t="s">
         <v>79</v>
       </c>
-      <c r="C11" s="16" t="s">
-        <v>69</v>
-      </c>
-      <c r="D11" s="17" t="s">
-        <v>72</v>
-      </c>
-      <c r="E11" s="19" t="s">
-        <v>69</v>
-      </c>
-      <c r="F11" s="19" t="s">
-        <v>69</v>
-      </c>
-      <c r="G11" s="19" t="s">
-        <v>69</v>
-      </c>
-      <c r="H11" s="37" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A12" s="38">
+      <c r="C11" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="D11" s="16" t="s">
+        <v>72</v>
+      </c>
+      <c r="E11" s="18" t="s">
+        <v>69</v>
+      </c>
+      <c r="F11" s="18" t="s">
+        <v>69</v>
+      </c>
+      <c r="G11" s="18" t="s">
+        <v>69</v>
+      </c>
+      <c r="H11" s="36" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="37">
         <v>4</v>
       </c>
-      <c r="B12" s="16" t="s">
+      <c r="B12" s="15" t="s">
         <v>80</v>
       </c>
-      <c r="C12" s="16" t="s">
+      <c r="C12" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="D12" s="17" t="s">
-        <v>72</v>
-      </c>
-      <c r="E12" s="19" t="s">
+      <c r="D12" s="16" t="s">
+        <v>72</v>
+      </c>
+      <c r="E12" s="18" t="s">
         <v>57</v>
       </c>
-      <c r="F12" s="13" t="s">
+      <c r="F12" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="G12" s="13" t="s">
+      <c r="G12" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="H12" s="37" t="s">
+      <c r="H12" s="36" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A13" s="10">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="9">
         <v>5</v>
       </c>
-      <c r="B13" s="11" t="s">
+      <c r="B13" s="10" t="s">
         <v>99</v>
       </c>
-      <c r="C13" s="21" t="s">
+      <c r="C13" s="20" t="s">
         <v>62</v>
       </c>
-      <c r="D13" s="21" t="s">
-        <v>72</v>
-      </c>
-      <c r="E13" s="21" t="s">
+      <c r="D13" s="20" t="s">
+        <v>72</v>
+      </c>
+      <c r="E13" s="20" t="s">
         <v>61</v>
       </c>
-      <c r="F13" s="22" t="s">
+      <c r="F13" s="21" t="s">
         <v>62</v>
       </c>
-      <c r="G13" s="21" t="s">
+      <c r="G13" s="20" t="s">
         <v>63</v>
       </c>
-      <c r="H13" s="41" t="s">
+      <c r="H13" s="40" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A14" s="10">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="9">
         <v>5</v>
       </c>
-      <c r="B14" s="11" t="s">
+      <c r="B14" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="C14" s="23" t="s">
+      <c r="C14" s="22" t="s">
         <v>82</v>
       </c>
-      <c r="D14" s="23" t="s">
-        <v>69</v>
-      </c>
-      <c r="E14" s="24" t="s">
+      <c r="D14" s="22" t="s">
+        <v>69</v>
+      </c>
+      <c r="E14" s="23" t="s">
         <v>59</v>
       </c>
-      <c r="F14" s="24" t="s">
+      <c r="F14" s="23" t="s">
         <v>58</v>
       </c>
-      <c r="G14" s="24" t="s">
+      <c r="G14" s="23" t="s">
         <v>58</v>
       </c>
-      <c r="H14" s="42" t="s">
+      <c r="H14" s="41" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A15" s="10">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="9">
         <v>5</v>
       </c>
-      <c r="B15" s="11" t="s">
+      <c r="B15" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="C15" s="25" t="s">
-        <v>72</v>
-      </c>
-      <c r="D15" s="13" t="s">
-        <v>72</v>
-      </c>
-      <c r="E15" s="19" t="s">
-        <v>72</v>
-      </c>
-      <c r="F15" s="19" t="s">
-        <v>72</v>
-      </c>
-      <c r="G15" s="19" t="s">
-        <v>72</v>
-      </c>
-      <c r="H15" s="40" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A16" s="10">
+      <c r="C15" s="24" t="s">
+        <v>72</v>
+      </c>
+      <c r="D15" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="E15" s="18" t="s">
+        <v>72</v>
+      </c>
+      <c r="F15" s="18" t="s">
+        <v>72</v>
+      </c>
+      <c r="G15" s="18" t="s">
+        <v>72</v>
+      </c>
+      <c r="H15" s="39" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="9">
         <v>5</v>
       </c>
-      <c r="B16" s="11" t="s">
+      <c r="B16" s="10" t="s">
         <v>83</v>
       </c>
-      <c r="C16" s="26" t="s">
+      <c r="C16" s="25" t="s">
         <v>92</v>
       </c>
-      <c r="D16" s="26" t="s">
-        <v>69</v>
-      </c>
-      <c r="E16" s="27" t="s">
+      <c r="D16" s="25" t="s">
+        <v>69</v>
+      </c>
+      <c r="E16" s="26" t="s">
         <v>87</v>
       </c>
-      <c r="F16" s="27" t="s">
+      <c r="F16" s="26" t="s">
         <v>86</v>
       </c>
-      <c r="G16" s="27" t="s">
+      <c r="G16" s="26" t="s">
         <v>86</v>
       </c>
-      <c r="H16" s="43" t="s">
+      <c r="H16" s="42" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A17" s="10">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="9">
         <v>5</v>
       </c>
-      <c r="B17" s="11" t="s">
+      <c r="B17" s="10" t="s">
         <v>84</v>
       </c>
-      <c r="C17" s="25" t="s">
+      <c r="C17" s="24" t="s">
         <v>86</v>
       </c>
-      <c r="D17" s="13" t="s">
-        <v>72</v>
-      </c>
-      <c r="E17" s="19" t="s">
+      <c r="D17" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="E17" s="18" t="s">
         <v>86</v>
       </c>
-      <c r="F17" s="13" t="s">
+      <c r="F17" s="12" t="s">
         <v>87</v>
       </c>
-      <c r="G17" s="19" t="s">
+      <c r="G17" s="18" t="s">
         <v>86</v>
       </c>
-      <c r="H17" s="40" t="s">
+      <c r="H17" s="39" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A18" s="10">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="9">
         <v>5</v>
       </c>
-      <c r="B18" s="11" t="s">
+      <c r="B18" s="10" t="s">
         <v>77</v>
       </c>
-      <c r="C18" s="25" t="s">
-        <v>72</v>
-      </c>
-      <c r="D18" s="13" t="s">
-        <v>72</v>
-      </c>
-      <c r="E18" s="13" t="s">
-        <v>69</v>
-      </c>
-      <c r="F18" s="13" t="s">
-        <v>69</v>
-      </c>
-      <c r="G18" s="19" t="s">
-        <v>72</v>
-      </c>
-      <c r="H18" s="40" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A19" s="10">
+      <c r="C18" s="24" t="s">
+        <v>72</v>
+      </c>
+      <c r="D18" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="E18" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="F18" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="G18" s="18" t="s">
+        <v>72</v>
+      </c>
+      <c r="H18" s="39" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="9">
         <v>5</v>
       </c>
-      <c r="B19" s="11" t="s">
+      <c r="B19" s="10" t="s">
         <v>85</v>
       </c>
-      <c r="C19" s="21" t="s">
-        <v>69</v>
-      </c>
-      <c r="D19" s="13" t="s">
-        <v>72</v>
-      </c>
-      <c r="E19" s="19" t="s">
-        <v>69</v>
-      </c>
-      <c r="F19" s="19" t="s">
-        <v>69</v>
-      </c>
-      <c r="G19" s="19" t="s">
-        <v>69</v>
-      </c>
-      <c r="H19" s="40" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A20" s="10">
+      <c r="C19" s="20" t="s">
+        <v>69</v>
+      </c>
+      <c r="D19" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="E19" s="18" t="s">
+        <v>69</v>
+      </c>
+      <c r="F19" s="18" t="s">
+        <v>69</v>
+      </c>
+      <c r="G19" s="18" t="s">
+        <v>69</v>
+      </c>
+      <c r="H19" s="39" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="9">
         <v>5</v>
       </c>
-      <c r="B20" s="11" t="s">
+      <c r="B20" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="C20" s="21" t="s">
+      <c r="C20" s="20" t="s">
         <v>54</v>
       </c>
-      <c r="D20" s="13" t="s">
-        <v>72</v>
-      </c>
-      <c r="E20" s="22" t="s">
+      <c r="D20" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="E20" s="21" t="s">
         <v>54</v>
       </c>
-      <c r="F20" s="13" t="s">
+      <c r="F20" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="G20" s="13" t="s">
+      <c r="G20" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="H20" s="37" t="s">
+      <c r="H20" s="36" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="35.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="38">
+    <row r="21" spans="1:8" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="37">
         <v>6</v>
       </c>
-      <c r="B21" s="28" t="s">
+      <c r="B21" s="27" t="s">
         <v>98</v>
       </c>
-      <c r="C21" s="29" t="s">
+      <c r="C21" s="28" t="s">
         <v>61</v>
       </c>
-      <c r="D21" s="30" t="s">
-        <v>69</v>
-      </c>
-      <c r="E21" s="28" t="s">
+      <c r="D21" s="29" t="s">
+        <v>69</v>
+      </c>
+      <c r="E21" s="27" t="s">
         <v>65</v>
       </c>
-      <c r="F21" s="28" t="s">
+      <c r="F21" s="27" t="s">
         <v>59</v>
       </c>
-      <c r="G21" s="28" t="s">
+      <c r="G21" s="27" t="s">
         <v>62</v>
       </c>
-      <c r="H21" s="44" t="s">
+      <c r="H21" s="43" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A22" s="38">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" s="37">
         <v>6</v>
       </c>
-      <c r="B22" s="28" t="s">
+      <c r="B22" s="27" t="s">
         <v>74</v>
       </c>
-      <c r="C22" s="29" t="s">
+      <c r="C22" s="28" t="s">
         <v>82</v>
       </c>
-      <c r="D22" s="29" t="s">
-        <v>69</v>
-      </c>
-      <c r="E22" s="28" t="s">
+      <c r="D22" s="28" t="s">
+        <v>69</v>
+      </c>
+      <c r="E22" s="27" t="s">
         <v>58</v>
       </c>
-      <c r="F22" s="28" t="s">
+      <c r="F22" s="27" t="s">
         <v>63</v>
       </c>
-      <c r="G22" s="28" t="s">
+      <c r="G22" s="27" t="s">
         <v>58</v>
       </c>
-      <c r="H22" s="44" t="s">
+      <c r="H22" s="43" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A23" s="38">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" s="37">
         <v>6</v>
       </c>
-      <c r="B23" s="31" t="s">
+      <c r="B23" s="30" t="s">
         <v>78</v>
       </c>
-      <c r="C23" s="13" t="s">
-        <v>72</v>
-      </c>
-      <c r="D23" s="13"/>
-      <c r="E23" s="32" t="s">
-        <v>72</v>
-      </c>
-      <c r="F23" s="31" t="s">
-        <v>69</v>
-      </c>
-      <c r="G23" s="32" t="s">
-        <v>72</v>
-      </c>
-      <c r="H23" s="45" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A24" s="38">
+      <c r="C23" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="D23" s="12"/>
+      <c r="E23" s="31" t="s">
+        <v>72</v>
+      </c>
+      <c r="F23" s="30" t="s">
+        <v>69</v>
+      </c>
+      <c r="G23" s="31" t="s">
+        <v>72</v>
+      </c>
+      <c r="H23" s="44" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" s="37">
         <v>6</v>
       </c>
-      <c r="B24" s="28" t="s">
+      <c r="B24" s="27" t="s">
         <v>83</v>
       </c>
-      <c r="C24" s="29" t="s">
+      <c r="C24" s="28" t="s">
         <v>87</v>
       </c>
-      <c r="D24" s="29" t="s">
-        <v>69</v>
-      </c>
-      <c r="E24" s="28" t="s">
+      <c r="D24" s="28" t="s">
+        <v>69</v>
+      </c>
+      <c r="E24" s="27" t="s">
         <v>87</v>
       </c>
-      <c r="F24" s="28" t="s">
+      <c r="F24" s="27" t="s">
         <v>87</v>
       </c>
-      <c r="G24" s="28" t="s">
+      <c r="G24" s="27" t="s">
         <v>87</v>
       </c>
-      <c r="H24" s="44" t="s">
+      <c r="H24" s="43" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A25" s="38">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" s="37">
         <v>6</v>
       </c>
-      <c r="B25" s="28" t="s">
+      <c r="B25" s="27" t="s">
         <v>84</v>
       </c>
-      <c r="C25" s="29" t="s">
+      <c r="C25" s="28" t="s">
         <v>87</v>
       </c>
-      <c r="D25" s="29" t="s">
-        <v>69</v>
-      </c>
-      <c r="E25" s="28" t="s">
+      <c r="D25" s="28" t="s">
+        <v>69</v>
+      </c>
+      <c r="E25" s="27" t="s">
         <v>87</v>
       </c>
-      <c r="F25" s="28" t="s">
+      <c r="F25" s="27" t="s">
         <v>87</v>
       </c>
-      <c r="G25" s="28" t="s">
+      <c r="G25" s="27" t="s">
         <v>87</v>
       </c>
-      <c r="H25" s="44" t="s">
+      <c r="H25" s="43" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A26" s="38">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" s="37">
         <v>6</v>
       </c>
-      <c r="B26" s="31" t="s">
+      <c r="B26" s="30" t="s">
         <v>77</v>
       </c>
-      <c r="C26" s="25" t="s">
-        <v>72</v>
-      </c>
-      <c r="D26" s="63" t="s">
-        <v>72</v>
-      </c>
-      <c r="E26" s="32" t="s">
-        <v>72</v>
-      </c>
-      <c r="F26" s="31" t="s">
-        <v>69</v>
-      </c>
-      <c r="G26" s="32" t="s">
-        <v>72</v>
-      </c>
-      <c r="H26" s="45" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" ht="26" x14ac:dyDescent="0.35">
-      <c r="A27" s="38">
+      <c r="C26" s="24" t="s">
+        <v>72</v>
+      </c>
+      <c r="D26" s="61" t="s">
+        <v>72</v>
+      </c>
+      <c r="E26" s="31" t="s">
+        <v>72</v>
+      </c>
+      <c r="F26" s="30" t="s">
+        <v>69</v>
+      </c>
+      <c r="G26" s="31" t="s">
+        <v>72</v>
+      </c>
+      <c r="H26" s="44" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A27" s="37">
         <v>6</v>
       </c>
-      <c r="B27" s="31" t="s">
+      <c r="B27" s="30" t="s">
         <v>89</v>
       </c>
-      <c r="C27" s="13" t="s">
+      <c r="C27" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="D27" s="63" t="s">
-        <v>72</v>
-      </c>
-      <c r="E27" s="32" t="s">
+      <c r="D27" s="61" t="s">
+        <v>72</v>
+      </c>
+      <c r="E27" s="31" t="s">
         <v>91</v>
       </c>
-      <c r="F27" s="32" t="s">
+      <c r="F27" s="31" t="s">
         <v>91</v>
       </c>
-      <c r="G27" s="31" t="s">
+      <c r="G27" s="30" t="s">
         <v>90</v>
       </c>
-      <c r="H27" s="45" t="s">
+      <c r="H27" s="44" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A28" s="38">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28" s="37">
         <v>6</v>
       </c>
-      <c r="B28" s="31" t="s">
+      <c r="B28" s="30" t="s">
         <v>85</v>
       </c>
-      <c r="C28" s="13" t="s">
-        <v>69</v>
-      </c>
-      <c r="D28" s="63" t="s">
-        <v>72</v>
-      </c>
-      <c r="E28" s="32" t="s">
-        <v>69</v>
-      </c>
-      <c r="F28" s="32" t="s">
-        <v>69</v>
-      </c>
-      <c r="G28" s="32" t="s">
-        <v>69</v>
-      </c>
-      <c r="H28" s="45" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A29" s="50">
+      <c r="C28" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="D28" s="61" t="s">
+        <v>72</v>
+      </c>
+      <c r="E28" s="31" t="s">
+        <v>69</v>
+      </c>
+      <c r="F28" s="31" t="s">
+        <v>69</v>
+      </c>
+      <c r="G28" s="31" t="s">
+        <v>69</v>
+      </c>
+      <c r="H28" s="44" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="48">
         <v>6</v>
       </c>
-      <c r="B29" s="51" t="s">
+      <c r="B29" s="49" t="s">
         <v>80</v>
       </c>
-      <c r="C29" s="52" t="s">
+      <c r="C29" s="50" t="s">
         <v>64</v>
       </c>
-      <c r="D29" s="63" t="s">
-        <v>72</v>
-      </c>
-      <c r="E29" s="53" t="s">
+      <c r="D29" s="61" t="s">
+        <v>72</v>
+      </c>
+      <c r="E29" s="51" t="s">
         <v>64</v>
       </c>
-      <c r="F29" s="51" t="s">
+      <c r="F29" s="49" t="s">
         <v>55</v>
       </c>
-      <c r="G29" s="53" t="s">
+      <c r="G29" s="51" t="s">
         <v>64</v>
       </c>
-      <c r="H29" s="54" t="s">
+      <c r="H29" s="52" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A30" s="55">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30" s="53">
         <v>7</v>
       </c>
-      <c r="B30" s="56" t="s">
+      <c r="B30" s="54" t="s">
         <v>88</v>
       </c>
-      <c r="C30" s="57" t="s">
+      <c r="C30" s="55" t="s">
         <v>61</v>
       </c>
-      <c r="D30" s="57" t="s">
-        <v>72</v>
-      </c>
-      <c r="E30" s="56" t="s">
+      <c r="D30" s="55" t="s">
+        <v>72</v>
+      </c>
+      <c r="E30" s="54" t="s">
         <v>62</v>
       </c>
-      <c r="F30" s="56" t="s">
+      <c r="F30" s="54" t="s">
         <v>59</v>
       </c>
-      <c r="G30" s="56" t="s">
+      <c r="G30" s="54" t="s">
         <v>63</v>
       </c>
-      <c r="H30" s="58" t="s">
+      <c r="H30" s="56" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A31" s="38">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31" s="37">
         <v>7</v>
       </c>
-      <c r="B31" s="31" t="s">
+      <c r="B31" s="30" t="s">
         <v>74</v>
       </c>
-      <c r="C31" s="31" t="s">
+      <c r="C31" s="30" t="s">
         <v>58</v>
       </c>
-      <c r="D31" s="21" t="s">
-        <v>72</v>
-      </c>
-      <c r="E31" s="32" t="s">
+      <c r="D31" s="20" t="s">
+        <v>72</v>
+      </c>
+      <c r="E31" s="31" t="s">
         <v>58</v>
       </c>
-      <c r="F31" s="31" t="s">
+      <c r="F31" s="30" t="s">
         <v>65</v>
       </c>
-      <c r="G31" s="32" t="s">
+      <c r="G31" s="31" t="s">
         <v>58</v>
       </c>
-      <c r="H31" s="46" t="s">
+      <c r="H31" s="45" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="32" spans="1:8" ht="26" x14ac:dyDescent="0.35">
-      <c r="A32" s="38">
+    <row r="32" spans="1:8" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A32" s="37">
         <v>7</v>
       </c>
-      <c r="B32" s="31" t="s">
+      <c r="B32" s="30" t="s">
         <v>93</v>
       </c>
-      <c r="C32" s="13" t="s">
+      <c r="C32" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="D32" s="21" t="s">
-        <v>72</v>
-      </c>
-      <c r="E32" s="32" t="s">
+      <c r="D32" s="20" t="s">
+        <v>72</v>
+      </c>
+      <c r="E32" s="31" t="s">
         <v>58</v>
       </c>
-      <c r="F32" s="32" t="s">
+      <c r="F32" s="31" t="s">
         <v>58</v>
       </c>
-      <c r="G32" s="32" t="s">
+      <c r="G32" s="31" t="s">
         <v>58</v>
       </c>
-      <c r="H32" s="45" t="s">
+      <c r="H32" s="44" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="33" spans="1:8" ht="38.5" x14ac:dyDescent="0.35">
-      <c r="A33" s="38">
+    <row r="33" spans="1:8" ht="39" x14ac:dyDescent="0.25">
+      <c r="A33" s="37">
         <v>7</v>
       </c>
-      <c r="B33" s="31" t="s">
+      <c r="B33" s="30" t="s">
         <v>94</v>
       </c>
-      <c r="C33" s="13" t="s">
-        <v>69</v>
-      </c>
-      <c r="D33" s="21" t="s">
-        <v>72</v>
-      </c>
-      <c r="E33" s="32" t="s">
-        <v>69</v>
-      </c>
-      <c r="F33" s="32" t="s">
-        <v>69</v>
-      </c>
-      <c r="G33" s="32" t="s">
-        <v>69</v>
-      </c>
-      <c r="H33" s="46" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" ht="38.5" x14ac:dyDescent="0.35">
-      <c r="A34" s="38">
+      <c r="C33" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="D33" s="20" t="s">
+        <v>72</v>
+      </c>
+      <c r="E33" s="31" t="s">
+        <v>69</v>
+      </c>
+      <c r="F33" s="31" t="s">
+        <v>69</v>
+      </c>
+      <c r="G33" s="31" t="s">
+        <v>69</v>
+      </c>
+      <c r="H33" s="45" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" ht="39" x14ac:dyDescent="0.25">
+      <c r="A34" s="37">
         <v>7</v>
       </c>
-      <c r="B34" s="31" t="s">
+      <c r="B34" s="30" t="s">
         <v>95</v>
       </c>
-      <c r="C34" s="13" t="s">
-        <v>72</v>
-      </c>
-      <c r="D34" s="21" t="s">
-        <v>72</v>
-      </c>
-      <c r="E34" s="32" t="s">
-        <v>72</v>
-      </c>
-      <c r="F34" s="32" t="s">
-        <v>72</v>
-      </c>
-      <c r="G34" s="31" t="s">
-        <v>69</v>
-      </c>
-      <c r="H34" s="46" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A35" s="38">
+      <c r="C34" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="D34" s="20" t="s">
+        <v>72</v>
+      </c>
+      <c r="E34" s="31" t="s">
+        <v>72</v>
+      </c>
+      <c r="F34" s="31" t="s">
+        <v>72</v>
+      </c>
+      <c r="G34" s="30" t="s">
+        <v>69</v>
+      </c>
+      <c r="H34" s="45" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A35" s="37">
         <v>7</v>
       </c>
-      <c r="B35" s="31" t="s">
+      <c r="B35" s="30" t="s">
         <v>78</v>
       </c>
-      <c r="C35" s="13" t="s">
-        <v>72</v>
-      </c>
-      <c r="D35" s="21" t="s">
-        <v>72</v>
-      </c>
-      <c r="E35" s="32" t="s">
-        <v>72</v>
-      </c>
-      <c r="F35" s="31" t="s">
-        <v>69</v>
-      </c>
-      <c r="G35" s="31" t="s">
-        <v>69</v>
-      </c>
-      <c r="H35" s="45" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A36" s="38">
+      <c r="C35" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="D35" s="20" t="s">
+        <v>72</v>
+      </c>
+      <c r="E35" s="31" t="s">
+        <v>72</v>
+      </c>
+      <c r="F35" s="30" t="s">
+        <v>69</v>
+      </c>
+      <c r="G35" s="30" t="s">
+        <v>69</v>
+      </c>
+      <c r="H35" s="44" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A36" s="37">
         <v>7</v>
       </c>
-      <c r="B36" s="31" t="s">
+      <c r="B36" s="30" t="s">
         <v>77</v>
       </c>
-      <c r="C36" s="13" t="s">
-        <v>72</v>
-      </c>
-      <c r="D36" s="21" t="s">
-        <v>72</v>
-      </c>
-      <c r="E36" s="31" t="s">
-        <v>69</v>
-      </c>
-      <c r="F36" s="32" t="s">
-        <v>72</v>
-      </c>
-      <c r="G36" s="32" t="s">
-        <v>72</v>
-      </c>
-      <c r="H36" s="45" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" ht="26" x14ac:dyDescent="0.35">
-      <c r="A37" s="38">
+      <c r="C36" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="D36" s="20" t="s">
+        <v>72</v>
+      </c>
+      <c r="E36" s="30" t="s">
+        <v>69</v>
+      </c>
+      <c r="F36" s="31" t="s">
+        <v>72</v>
+      </c>
+      <c r="G36" s="31" t="s">
+        <v>72</v>
+      </c>
+      <c r="H36" s="44" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A37" s="37">
         <v>7</v>
       </c>
-      <c r="B37" s="31" t="s">
+      <c r="B37" s="30" t="s">
         <v>96</v>
       </c>
-      <c r="C37" s="13" t="s">
-        <v>69</v>
-      </c>
-      <c r="D37" s="21" t="s">
-        <v>72</v>
-      </c>
-      <c r="E37" s="32" t="s">
-        <v>69</v>
-      </c>
-      <c r="F37" s="32" t="s">
-        <v>69</v>
-      </c>
-      <c r="G37" s="31" t="s">
-        <v>72</v>
-      </c>
-      <c r="H37" s="46" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A38" s="38">
+      <c r="C37" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="D37" s="20" t="s">
+        <v>72</v>
+      </c>
+      <c r="E37" s="31" t="s">
+        <v>69</v>
+      </c>
+      <c r="F37" s="31" t="s">
+        <v>69</v>
+      </c>
+      <c r="G37" s="30" t="s">
+        <v>72</v>
+      </c>
+      <c r="H37" s="45" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="37">
         <v>7</v>
       </c>
-      <c r="B38" s="31" t="s">
+      <c r="B38" s="30" t="s">
         <v>97</v>
       </c>
-      <c r="C38" s="21" t="s">
-        <v>72</v>
-      </c>
-      <c r="D38" s="49" t="s">
-        <v>72</v>
-      </c>
-      <c r="E38" s="31" t="s">
-        <v>69</v>
-      </c>
-      <c r="F38" s="31" t="s">
-        <v>69</v>
-      </c>
-      <c r="G38" s="31" t="s">
-        <v>69</v>
-      </c>
-      <c r="H38" s="45" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A39" s="50">
+      <c r="C38" s="20" t="s">
+        <v>72</v>
+      </c>
+      <c r="D38" s="47" t="s">
+        <v>72</v>
+      </c>
+      <c r="E38" s="30" t="s">
+        <v>69</v>
+      </c>
+      <c r="F38" s="30" t="s">
+        <v>69</v>
+      </c>
+      <c r="G38" s="30" t="s">
+        <v>69</v>
+      </c>
+      <c r="H38" s="44" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="48">
         <v>7</v>
       </c>
-      <c r="B39" s="51" t="s">
+      <c r="B39" s="49" t="s">
         <v>80</v>
       </c>
-      <c r="C39" s="52" t="s">
+      <c r="C39" s="50" t="s">
         <v>59</v>
       </c>
-      <c r="D39" s="52" t="s">
-        <v>72</v>
-      </c>
-      <c r="E39" s="51" t="s">
+      <c r="D39" s="50" t="s">
+        <v>72</v>
+      </c>
+      <c r="E39" s="49" t="s">
         <v>55</v>
       </c>
-      <c r="F39" s="53" t="s">
+      <c r="F39" s="51" t="s">
         <v>59</v>
       </c>
-      <c r="G39" s="51" t="s">
+      <c r="G39" s="49" t="s">
         <v>55</v>
       </c>
-      <c r="H39" s="54" t="s">
+      <c r="H39" s="52" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A40" s="33">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A40" s="32">
         <v>8</v>
       </c>
-      <c r="B40" s="59" t="s">
+      <c r="B40" s="57" t="s">
         <v>100</v>
       </c>
-      <c r="C40" s="59" t="s">
+      <c r="C40" s="57" t="s">
         <v>63</v>
       </c>
-      <c r="D40" s="60" t="s">
-        <v>72</v>
-      </c>
-      <c r="E40" s="59" t="s">
+      <c r="D40" s="58" t="s">
+        <v>72</v>
+      </c>
+      <c r="E40" s="57" t="s">
         <v>67</v>
       </c>
-      <c r="F40" s="59" t="s">
+      <c r="F40" s="57" t="s">
         <v>62</v>
       </c>
-      <c r="G40" s="59" t="s">
+      <c r="G40" s="57" t="s">
         <v>55</v>
       </c>
-      <c r="H40" s="61" t="s">
+      <c r="H40" s="59" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A41" s="38">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A41" s="37">
         <v>8</v>
       </c>
-      <c r="B41" s="31" t="s">
+      <c r="B41" s="30" t="s">
         <v>74</v>
       </c>
-      <c r="C41" s="31" t="s">
+      <c r="C41" s="30" t="s">
         <v>70</v>
       </c>
-      <c r="D41" s="21" t="s">
-        <v>72</v>
-      </c>
-      <c r="E41" s="31" t="s">
+      <c r="D41" s="20" t="s">
+        <v>72</v>
+      </c>
+      <c r="E41" s="30" t="s">
         <v>63</v>
       </c>
-      <c r="F41" s="31" t="s">
+      <c r="F41" s="30" t="s">
         <v>62</v>
       </c>
-      <c r="G41" s="31" t="s">
+      <c r="G41" s="30" t="s">
         <v>58</v>
       </c>
-      <c r="H41" s="46" t="s">
+      <c r="H41" s="45" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A42" s="38">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A42" s="37">
         <v>8</v>
       </c>
-      <c r="B42" s="31" t="s">
+      <c r="B42" s="30" t="s">
         <v>101</v>
       </c>
-      <c r="C42" s="63" t="s">
+      <c r="C42" s="61" t="s">
         <v>63</v>
       </c>
-      <c r="D42" s="21" t="s">
-        <v>72</v>
-      </c>
-      <c r="E42" s="31" t="s">
+      <c r="D42" s="20" t="s">
+        <v>72</v>
+      </c>
+      <c r="E42" s="30" t="s">
         <v>58</v>
       </c>
-      <c r="F42" s="31" t="s">
+      <c r="F42" s="30" t="s">
         <v>58</v>
       </c>
-      <c r="G42" s="31" t="s">
+      <c r="G42" s="30" t="s">
         <v>58</v>
       </c>
-      <c r="H42" s="46" t="s">
+      <c r="H42" s="45" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A43" s="38">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A43" s="37">
         <v>8</v>
       </c>
-      <c r="B43" s="31" t="s">
+      <c r="B43" s="30" t="s">
         <v>102</v>
       </c>
-      <c r="C43" s="63" t="s">
-        <v>69</v>
-      </c>
-      <c r="D43" s="21" t="s">
-        <v>72</v>
-      </c>
-      <c r="E43" s="65" t="s">
-        <v>72</v>
-      </c>
-      <c r="F43" s="32" t="s">
-        <v>69</v>
-      </c>
-      <c r="G43" s="32" t="s">
-        <v>69</v>
-      </c>
-      <c r="H43" s="45" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A44" s="38">
+      <c r="C43" s="61" t="s">
+        <v>69</v>
+      </c>
+      <c r="D43" s="20" t="s">
+        <v>72</v>
+      </c>
+      <c r="E43" s="62" t="s">
+        <v>72</v>
+      </c>
+      <c r="F43" s="31" t="s">
+        <v>69</v>
+      </c>
+      <c r="G43" s="31" t="s">
+        <v>69</v>
+      </c>
+      <c r="H43" s="44" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A44" s="37">
         <v>8</v>
       </c>
-      <c r="B44" s="31" t="s">
+      <c r="B44" s="30" t="s">
         <v>78</v>
       </c>
-      <c r="C44" s="63" t="s">
-        <v>72</v>
-      </c>
-      <c r="D44" s="21" t="s">
-        <v>72</v>
-      </c>
-      <c r="E44" s="32" t="s">
-        <v>72</v>
-      </c>
-      <c r="F44" s="31" t="s">
-        <v>69</v>
-      </c>
-      <c r="G44" s="31" t="s">
-        <v>69</v>
-      </c>
-      <c r="H44" s="46" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A45" s="38">
+      <c r="C44" s="61" t="s">
+        <v>72</v>
+      </c>
+      <c r="D44" s="20" t="s">
+        <v>72</v>
+      </c>
+      <c r="E44" s="31" t="s">
+        <v>72</v>
+      </c>
+      <c r="F44" s="30" t="s">
+        <v>69</v>
+      </c>
+      <c r="G44" s="30" t="s">
+        <v>69</v>
+      </c>
+      <c r="H44" s="45" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A45" s="37">
         <v>8</v>
       </c>
-      <c r="B45" s="31" t="s">
+      <c r="B45" s="30" t="s">
         <v>77</v>
       </c>
-      <c r="C45" s="63" t="s">
-        <v>72</v>
-      </c>
-      <c r="D45" s="21" t="s">
-        <v>72</v>
-      </c>
-      <c r="E45" s="32" t="s">
-        <v>72</v>
-      </c>
-      <c r="F45" s="32" t="s">
-        <v>72</v>
-      </c>
-      <c r="G45" s="32" t="s">
-        <v>72</v>
-      </c>
-      <c r="H45" s="45" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A46" s="38">
+      <c r="C45" s="61" t="s">
+        <v>72</v>
+      </c>
+      <c r="D45" s="20" t="s">
+        <v>72</v>
+      </c>
+      <c r="E45" s="31" t="s">
+        <v>72</v>
+      </c>
+      <c r="F45" s="31" t="s">
+        <v>72</v>
+      </c>
+      <c r="G45" s="31" t="s">
+        <v>72</v>
+      </c>
+      <c r="H45" s="44" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A46" s="37">
         <v>8</v>
       </c>
-      <c r="B46" s="31" t="s">
+      <c r="B46" s="30" t="s">
         <v>103</v>
       </c>
-      <c r="C46" s="63" t="s">
-        <v>72</v>
-      </c>
-      <c r="D46" s="21" t="s">
-        <v>72</v>
-      </c>
-      <c r="E46" s="32" t="s">
-        <v>72</v>
-      </c>
-      <c r="F46" s="32" t="s">
-        <v>72</v>
-      </c>
-      <c r="G46" s="32" t="s">
-        <v>72</v>
-      </c>
-      <c r="H46" s="45" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A47" s="38">
+      <c r="C46" s="61" t="s">
+        <v>72</v>
+      </c>
+      <c r="D46" s="20" t="s">
+        <v>72</v>
+      </c>
+      <c r="E46" s="31" t="s">
+        <v>72</v>
+      </c>
+      <c r="F46" s="31" t="s">
+        <v>72</v>
+      </c>
+      <c r="G46" s="31" t="s">
+        <v>72</v>
+      </c>
+      <c r="H46" s="44" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A47" s="37">
         <v>8</v>
       </c>
-      <c r="B47" s="31" t="s">
+      <c r="B47" s="30" t="s">
         <v>104</v>
       </c>
-      <c r="C47" s="63" t="s">
-        <v>69</v>
-      </c>
-      <c r="D47" s="21" t="s">
-        <v>72</v>
-      </c>
-      <c r="E47" s="32" t="s">
-        <v>69</v>
-      </c>
-      <c r="F47" s="32" t="s">
-        <v>69</v>
-      </c>
-      <c r="G47" s="32" t="s">
-        <v>69</v>
-      </c>
-      <c r="H47" s="46" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A48" s="47">
+      <c r="C47" s="61" t="s">
+        <v>69</v>
+      </c>
+      <c r="D47" s="20" t="s">
+        <v>72</v>
+      </c>
+      <c r="E47" s="31" t="s">
+        <v>69</v>
+      </c>
+      <c r="F47" s="31" t="s">
+        <v>69</v>
+      </c>
+      <c r="G47" s="31" t="s">
+        <v>69</v>
+      </c>
+      <c r="H47" s="45" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="48">
         <v>8</v>
       </c>
-      <c r="B48" s="48" t="s">
+      <c r="B48" s="49" t="s">
         <v>80</v>
       </c>
-      <c r="C48" s="64" t="s">
+      <c r="C48" s="71" t="s">
         <v>58</v>
       </c>
-      <c r="D48" s="49" t="s">
-        <v>72</v>
-      </c>
-      <c r="E48" s="48" t="s">
+      <c r="D48" s="50" t="s">
+        <v>72</v>
+      </c>
+      <c r="E48" s="49" t="s">
         <v>55</v>
       </c>
-      <c r="F48" s="48" t="s">
+      <c r="F48" s="49" t="s">
         <v>55</v>
       </c>
-      <c r="G48" s="48" t="s">
+      <c r="G48" s="49" t="s">
         <v>67</v>
       </c>
-      <c r="H48" s="62" t="s">
+      <c r="H48" s="72" t="s">
         <v>55</v>
       </c>
+    </row>
+    <row r="49" spans="1:8" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A49" s="32">
+        <v>9</v>
+      </c>
+      <c r="B49" s="57" t="s">
+        <v>106</v>
+      </c>
+      <c r="C49" s="65" t="s">
+        <v>61</v>
+      </c>
+      <c r="D49" s="65" t="s">
+        <v>72</v>
+      </c>
+      <c r="E49" s="57" t="s">
+        <v>67</v>
+      </c>
+      <c r="F49" s="78" t="s">
+        <v>61</v>
+      </c>
+      <c r="G49" s="57" t="s">
+        <v>62</v>
+      </c>
+      <c r="H49" s="59" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A50" s="74">
+        <v>9</v>
+      </c>
+      <c r="B50" s="30" t="s">
+        <v>101</v>
+      </c>
+      <c r="C50" s="73" t="s">
+        <v>115</v>
+      </c>
+      <c r="D50" s="73" t="s">
+        <v>72</v>
+      </c>
+      <c r="E50" s="31" t="s">
+        <v>67</v>
+      </c>
+      <c r="F50" s="30" t="s">
+        <v>61</v>
+      </c>
+      <c r="G50" s="30" t="s">
+        <v>51</v>
+      </c>
+      <c r="H50" s="44" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A51" s="74">
+        <v>9</v>
+      </c>
+      <c r="B51" s="30" t="s">
+        <v>107</v>
+      </c>
+      <c r="C51" s="73" t="s">
+        <v>69</v>
+      </c>
+      <c r="D51" s="73" t="s">
+        <v>72</v>
+      </c>
+      <c r="E51" s="31" t="s">
+        <v>69</v>
+      </c>
+      <c r="F51" s="31" t="s">
+        <v>69</v>
+      </c>
+      <c r="G51" s="30" t="s">
+        <v>72</v>
+      </c>
+      <c r="H51" s="45" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A52" s="74">
+        <v>9</v>
+      </c>
+      <c r="B52" s="30" t="s">
+        <v>89</v>
+      </c>
+      <c r="C52" s="73" t="s">
+        <v>72</v>
+      </c>
+      <c r="D52" s="73" t="s">
+        <v>72</v>
+      </c>
+      <c r="E52" s="31" t="s">
+        <v>72</v>
+      </c>
+      <c r="F52" s="31" t="s">
+        <v>72</v>
+      </c>
+      <c r="G52" s="31" t="s">
+        <v>72</v>
+      </c>
+      <c r="H52" s="44" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A53" s="74">
+        <v>9</v>
+      </c>
+      <c r="B53" s="30" t="s">
+        <v>108</v>
+      </c>
+      <c r="C53" s="73" t="s">
+        <v>72</v>
+      </c>
+      <c r="D53" s="73" t="s">
+        <v>72</v>
+      </c>
+      <c r="E53" s="30" t="s">
+        <v>72</v>
+      </c>
+      <c r="F53" s="30" t="s">
+        <v>69</v>
+      </c>
+      <c r="G53" s="30" t="s">
+        <v>69</v>
+      </c>
+      <c r="H53" s="45" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A54" s="74">
+        <v>9</v>
+      </c>
+      <c r="B54" s="30" t="s">
+        <v>109</v>
+      </c>
+      <c r="C54" s="73" t="s">
+        <v>72</v>
+      </c>
+      <c r="D54" s="73" t="s">
+        <v>72</v>
+      </c>
+      <c r="E54" s="31" t="s">
+        <v>72</v>
+      </c>
+      <c r="F54" s="31" t="s">
+        <v>72</v>
+      </c>
+      <c r="G54" s="30" t="s">
+        <v>69</v>
+      </c>
+      <c r="H54" s="45" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A55" s="74">
+        <v>9</v>
+      </c>
+      <c r="B55" s="30" t="s">
+        <v>77</v>
+      </c>
+      <c r="C55" s="73" t="s">
+        <v>72</v>
+      </c>
+      <c r="D55" s="73" t="s">
+        <v>72</v>
+      </c>
+      <c r="E55" s="31" t="s">
+        <v>72</v>
+      </c>
+      <c r="F55" s="31" t="s">
+        <v>72</v>
+      </c>
+      <c r="G55" s="31" t="s">
+        <v>72</v>
+      </c>
+      <c r="H55" s="44" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A56" s="74">
+        <v>9</v>
+      </c>
+      <c r="B56" s="30" t="s">
+        <v>110</v>
+      </c>
+      <c r="C56" s="73" t="s">
+        <v>72</v>
+      </c>
+      <c r="D56" s="73" t="s">
+        <v>72</v>
+      </c>
+      <c r="E56" s="31" t="s">
+        <v>72</v>
+      </c>
+      <c r="F56" s="30" t="s">
+        <v>69</v>
+      </c>
+      <c r="G56" s="30" t="s">
+        <v>69</v>
+      </c>
+      <c r="H56" s="44" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A57" s="74">
+        <v>9</v>
+      </c>
+      <c r="B57" s="30" t="s">
+        <v>111</v>
+      </c>
+      <c r="C57" s="73" t="s">
+        <v>82</v>
+      </c>
+      <c r="D57" s="73" t="s">
+        <v>69</v>
+      </c>
+      <c r="E57" s="30" t="s">
+        <v>112</v>
+      </c>
+      <c r="F57" s="30" t="s">
+        <v>112</v>
+      </c>
+      <c r="G57" s="30" t="s">
+        <v>112</v>
+      </c>
+      <c r="H57" s="45" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="75">
+        <v>9</v>
+      </c>
+      <c r="B58" s="46" t="s">
+        <v>80</v>
+      </c>
+      <c r="C58" s="77" t="s">
+        <v>51</v>
+      </c>
+      <c r="D58" s="76"/>
+      <c r="E58" s="46" t="s">
+        <v>114</v>
+      </c>
+      <c r="F58" s="46" t="s">
+        <v>55</v>
+      </c>
+      <c r="G58" s="46" t="s">
+        <v>65</v>
+      </c>
+      <c r="H58" s="60" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="66">
+        <v>10</v>
+      </c>
+      <c r="B59" s="67" t="s">
+        <v>68</v>
+      </c>
+      <c r="C59" s="67" t="s">
+        <v>105</v>
+      </c>
+      <c r="D59" s="68" t="s">
+        <v>69</v>
+      </c>
+      <c r="E59" s="67"/>
+      <c r="F59" s="67"/>
+      <c r="G59" s="67"/>
+      <c r="H59" s="69"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:H6" xr:uid="{3ABC1FEC-B626-46F0-AE97-C498D904E4E1}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>